--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>runname</t>
   </si>
@@ -184,6 +184,24 @@
   </si>
   <si>
     <t>Ben</t>
+  </si>
+  <si>
+    <t>useAVunrecReturn</t>
+  </si>
+  <si>
+    <t>init_MA</t>
+  </si>
+  <si>
+    <t>init_AA</t>
+  </si>
+  <si>
+    <t>MA_0_pct</t>
+  </si>
+  <si>
+    <t>AA_0_pct</t>
+  </si>
+  <si>
+    <t>AL_pct</t>
   </si>
 </sst>
 </file>
@@ -191,9 +209,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -219,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +274,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -270,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -281,9 +305,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,6 +325,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>150976</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26803350" y="800100"/>
+          <a:ext cx="11390476" cy="1238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,29 +667,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:V12"/>
+  <dimension ref="A4:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="2" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,58 +706,73 @@
         <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -702,59 +785,74 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>4</v>
-      </c>
-      <c r="H5">
-        <v>0.14000000000000001</v>
       </c>
       <c r="I5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
+      <c r="J5">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>32</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>20</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.04</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>7</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>43</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>31</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>23</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="V5" s="7">
+      <c r="W5" s="7">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AA5">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -767,59 +865,74 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>4</v>
-      </c>
-      <c r="H6">
-        <v>0.14000000000000001</v>
       </c>
       <c r="I6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J6" t="b">
-        <v>1</v>
+      <c r="J6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>32</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>20</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.04</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>7</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>43</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>31</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>24</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="V6" s="7">
+      <c r="W6" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AA6">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -832,59 +945,74 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>4</v>
-      </c>
-      <c r="H7">
-        <v>0.14000000000000001</v>
       </c>
       <c r="I7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J7" t="b">
-        <v>1</v>
+      <c r="J7">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>32</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>20</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.04</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>7</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
         <v>43</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>31</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>25</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="V7" s="7">
+      <c r="W7" s="7">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AA7">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -897,59 +1025,74 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>4</v>
-      </c>
-      <c r="H8">
-        <v>0.14000000000000001</v>
       </c>
       <c r="I8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J8" t="b">
-        <v>1</v>
+      <c r="J8">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>32</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>20</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.04</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>7</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
         <v>43</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>31</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>26</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="V8" s="7">
+      <c r="W8" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z8">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AA8">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -962,59 +1105,74 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>4</v>
-      </c>
-      <c r="H9">
-        <v>0.14000000000000001</v>
       </c>
       <c r="I9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J9" t="b">
-        <v>1</v>
+      <c r="J9">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
         <v>32</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>20</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.04</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>7</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
         <v>43</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>31</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>27</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="V9" s="7">
+      <c r="W9" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AA9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1027,59 +1185,74 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>4</v>
-      </c>
-      <c r="H11">
-        <v>0.14000000000000001</v>
       </c>
       <c r="I11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J11" t="b">
-        <v>1</v>
+      <c r="J11">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
         <v>32</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>20</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.04</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>7</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
         <v>43</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>31</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>23</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="V11" s="7">
+      <c r="W11" s="7">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AA11">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1092,69 +1265,85 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>70</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
         <v>4</v>
-      </c>
-      <c r="H12">
-        <v>0.14000000000000001</v>
       </c>
       <c r="I12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J12" t="b">
-        <v>1</v>
+      <c r="J12">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
         <v>32</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>20</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0.04</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>7</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
         <v>47</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>31</v>
       </c>
-      <c r="S12" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12">
+      <c r="T12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="V12" s="7">
+      <c r="W12" s="7">
         <v>0.12</v>
+      </c>
+      <c r="X12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z12">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AA12">
+        <v>0.91500000000000004</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E12 D5:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12 D5:F9">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R9 R11:R12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S9 S11:S12">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1233,7 +1422,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,14 +1684,14 @@
         <v>0.12</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" ref="F11:F12" si="2">B12 - C12^2/2</f>
+        <f t="shared" ref="F12" si="2">B12 - C12^2/2</f>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -1515,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -670,7 +670,7 @@
   <dimension ref="A4:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -860,13 +860,13 @@
         <v>40</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>40</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>40</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>40</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1170,6 +1170,11 @@
       </c>
       <c r="AA9">
         <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -1260,7 +1265,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1281,7 +1286,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1334,7 +1339,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12 D5:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12 E5:F9 D5:D10">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S9 S11:S12">
@@ -1422,7 +1427,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="GASB67 Cash flow" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>runname</t>
   </si>
@@ -202,6 +203,278 @@
   </si>
   <si>
     <t>AL_pct</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Year
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Beginning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>July 1,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Projected Beginning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Plan Fiduciary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Net Position
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(a)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Projected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Total
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Contributions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(b)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Projected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Benefit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Payments
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(c)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Projected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Administrative
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Expenses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(d)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Projected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Investment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Earnings
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(e)</t>
+    </r>
+  </si>
+  <si>
+    <t>TOC</t>
+  </si>
+  <si>
+    <t>startcell</t>
+  </si>
+  <si>
+    <t>endcell</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>MA.GASB</t>
+  </si>
+  <si>
+    <t>C.GASB</t>
+  </si>
+  <si>
+    <t>B.GASB</t>
+  </si>
+  <si>
+    <t>AdminExp.GASB</t>
+  </si>
+  <si>
+    <t>InvIncome.GASB</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>G31</t>
   </si>
 </sst>
 </file>
@@ -213,7 +486,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +505,25 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -289,12 +581,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -309,8 +620,57 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -669,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +1220,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -940,7 +1300,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1020,7 +1380,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1100,7 +1460,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1174,7 +1534,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -1265,7 +1625,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1274,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -1310,7 +1670,7 @@
         <v>47</v>
       </c>
       <c r="S12" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="T12" t="s">
         <v>23</v>
@@ -1339,7 +1699,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:F12 E5:F9 D5:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D12 E5:F9 E11:F12">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S9 S11:S12">
@@ -1357,7 +1717,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1787,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +2049,7 @@
         <v>0.12</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
@@ -1707,10 +2067,601 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
+        <v>2014</v>
+      </c>
+      <c r="C7" s="16">
+        <v>16990</v>
+      </c>
+      <c r="D7" s="15">
+        <v>607</v>
+      </c>
+      <c r="E7" s="16">
+        <v>919</v>
+      </c>
+      <c r="F7" s="15">
+        <v>18</v>
+      </c>
+      <c r="G7" s="16">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="17">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="19">
+        <v>17347</v>
+      </c>
+      <c r="D8" s="18">
+        <v>632</v>
+      </c>
+      <c r="E8" s="19">
+        <v>970</v>
+      </c>
+      <c r="F8" s="18">
+        <v>13</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="17">
+        <v>2016</v>
+      </c>
+      <c r="C9" s="19">
+        <v>18302</v>
+      </c>
+      <c r="D9" s="18">
+        <v>634</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1104</v>
+      </c>
+      <c r="F9" s="18">
+        <v>13</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="19">
+        <v>19190</v>
+      </c>
+      <c r="D10" s="18">
+        <v>609</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1050</v>
+      </c>
+      <c r="F10" s="18">
+        <v>13</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="17">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="19">
+        <v>20176</v>
+      </c>
+      <c r="D11" s="18">
+        <v>616</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1149</v>
+      </c>
+      <c r="F11" s="18">
+        <v>13</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="19">
+        <v>21139</v>
+      </c>
+      <c r="D12" s="18">
+        <v>586</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1267</v>
+      </c>
+      <c r="F12" s="18">
+        <v>12</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="19">
+        <v>22019</v>
+      </c>
+      <c r="D13" s="18">
+        <v>538</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1212</v>
+      </c>
+      <c r="F13" s="18">
+        <v>12</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="19">
+        <v>22971</v>
+      </c>
+      <c r="D14" s="18">
+        <v>537</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1283</v>
+      </c>
+      <c r="F14" s="18">
+        <v>12</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="19">
+        <v>23920</v>
+      </c>
+      <c r="D15" s="18">
+        <v>538</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1350</v>
+      </c>
+      <c r="F15" s="18">
+        <v>12</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="22">
+        <v>24871</v>
+      </c>
+      <c r="D16" s="21">
+        <v>539</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1416</v>
+      </c>
+      <c r="F16" s="21">
+        <v>12</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <v>2038</v>
+      </c>
+      <c r="C17" s="19">
+        <v>32905</v>
+      </c>
+      <c r="D17" s="18">
+        <v>197</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2584</v>
+      </c>
+      <c r="F17" s="18">
+        <v>5</v>
+      </c>
+      <c r="G17" s="19">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="17">
+        <v>2039</v>
+      </c>
+      <c r="C18" s="19">
+        <v>32883</v>
+      </c>
+      <c r="D18" s="18">
+        <v>214</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2667</v>
+      </c>
+      <c r="F18" s="18">
+        <v>4</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="17">
+        <v>2040</v>
+      </c>
+      <c r="C19" s="19">
+        <v>32791</v>
+      </c>
+      <c r="D19" s="18">
+        <v>174</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2734</v>
+      </c>
+      <c r="F19" s="18">
+        <v>4</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="17">
+        <v>2041</v>
+      </c>
+      <c r="C20" s="19">
+        <v>32581</v>
+      </c>
+      <c r="D20" s="18">
+        <v>91</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2785</v>
+      </c>
+      <c r="F20" s="18">
+        <v>3</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
+        <v>2042</v>
+      </c>
+      <c r="C21" s="22">
+        <v>32213</v>
+      </c>
+      <c r="D21" s="21">
+        <v>74</v>
+      </c>
+      <c r="E21" s="22">
+        <v>2824</v>
+      </c>
+      <c r="F21" s="21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="22">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="17">
+        <v>2082</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1097</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <v>290</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="17">
+        <v>2083</v>
+      </c>
+      <c r="C23" s="19">
+        <v>877</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <v>239</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="17">
+        <v>2084</v>
+      </c>
+      <c r="C24" s="19">
+        <v>694</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>194</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="17">
+        <v>2085</v>
+      </c>
+      <c r="C25" s="19">
+        <v>543</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>156</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="20">
+        <v>2086</v>
+      </c>
+      <c r="C26" s="22">
+        <v>420</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="22">
+        <v>124</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="17">
+        <v>2101</v>
+      </c>
+      <c r="C27" s="19">
+        <v>2</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="17">
+        <v>2102</v>
+      </c>
+      <c r="C28" s="19">
+        <v>2</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="20">
+        <v>2103</v>
+      </c>
+      <c r="C29" s="22">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="17">
+        <v>2115</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="23">
+        <v>2116</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="25"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -1035,18 +1035,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="15" max="15" width="15.75" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13.375" customWidth="1"/>
+    <col min="19" max="19" width="12.625" customWidth="1"/>
+    <col min="20" max="20" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1786,16 +1786,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2069,13 +2069,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2666,7 +2666,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -1716,7 +1716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1784,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,6 +2058,12 @@
       <c r="F12" s="10">
         <f t="shared" ref="F12" si="2">B12 - C12^2/2</f>
         <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f xml:space="preserve"> (0.0698 - 0.027)/0.13 * 0.12 + 0.027</f>
+        <v>6.6507692307692309E-2</v>
       </c>
     </row>
   </sheetData>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
     <sheet name="GASB67 Cash flow" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
+    <sheet name="Calibration" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="106">
   <si>
     <t>runname</t>
   </si>
@@ -161,9 +162,6 @@
   </si>
   <si>
     <t>no_entrance</t>
-  </si>
-  <si>
-    <t>RS1.closed</t>
   </si>
   <si>
     <t>T</t>
@@ -476,17 +474,106 @@
   <si>
     <t>G31</t>
   </si>
+  <si>
+    <t>EEC_DROP</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model  </t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>Model.calib</t>
+  </si>
+  <si>
+    <t>diff.calib</t>
+  </si>
+  <si>
+    <t>PVFB for actives</t>
+  </si>
+  <si>
+    <t>PVFB for retirees/bens</t>
+  </si>
+  <si>
+    <t>AL total</t>
+  </si>
+  <si>
+    <t>AL for actives</t>
+  </si>
+  <si>
+    <t>VVA</t>
+  </si>
+  <si>
+    <t>MVA</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>EEC</t>
+  </si>
+  <si>
+    <t>ERC</t>
+  </si>
+  <si>
+    <t>payroll</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Callan</t>
+  </si>
+  <si>
+    <t>RVK</t>
+  </si>
+  <si>
+    <t>closed_RS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  year          B</t>
+  </si>
+  <si>
+    <t>Adj.benDROP</t>
+  </si>
+  <si>
+    <t>RS1_FR075</t>
+  </si>
+  <si>
+    <t>RS2_FR075</t>
+  </si>
+  <si>
+    <t>RS5_FR075</t>
+  </si>
+  <si>
+    <t>RS3_FR075</t>
+  </si>
+  <si>
+    <t>RS4_FR075</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +614,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -573,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -599,13 +692,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -668,8 +777,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -687,24 +827,917 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'GASB67 Cash flow'!$B$37:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1283</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1496.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1576.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1656.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1736.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1817.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1897.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1977.4000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2057.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2137.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2298.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2378.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2458.5999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2538.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2584</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2734</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8EE-4E22-93AC-5509B564DEBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="500718208"/>
+        <c:axId val="500718536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="500718208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500718536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="500718536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500718208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>150976</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -725,6 +1758,521 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>477448</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74ABDB8-B3A7-4EB9-A94B-2B948667BE76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752599" y="5429250"/>
+          <a:ext cx="7602149" cy="4210050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD24552-1747-4729-96A8-622D140DACF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5371C1C3-1734-414D-9E04-FF1F64C8071E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="3676650"/>
+          <a:ext cx="7467600" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Duration: </a:t>
+          </a:r>
+          <a:endParaRPr lang="x-none" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AAL DR:   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>18174710587</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AAL +1%:  AAL: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16192752562    (AL.act: 6941488396,      PVFB.act = 9984484403)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                   Change: 16192752562/18174710587 -1=-0.1091 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                   Target: -10.9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AAL -1%    AAL: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20564421674   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (AL.act = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9573882561</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,    PVFB.act = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>15528002079</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Change:   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20564421674/18174710587 -1=0.1315 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                  Target: 13.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Duration: (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20564421674 - 16192752562)/(2*18174710587) = 0.1203 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Target: 12.12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1027,29 +2575,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AA12"/>
+  <dimension ref="A4:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="6" width="24.625" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
-    <col min="15" max="15" width="15.75" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="13.375" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="20" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="9" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,78 +2613,84 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA4" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -1151,150 +2707,79 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>32</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>20</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.04</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>7</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
         <v>43</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>31</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X5">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AC5">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>23</v>
-      </c>
-      <c r="U5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V5">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="X5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AA5">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6">
-        <v>20</v>
-      </c>
-      <c r="O6">
-        <v>0.04</v>
-      </c>
-      <c r="P6">
-        <v>7</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V6">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z6">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AA6">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -1311,70 +2796,76 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>20</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.04</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>7</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
         <v>43</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>31</v>
       </c>
-      <c r="T7" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7">
+      <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="W7" s="7">
+      <c r="Y7" s="7">
         <v>0.16</v>
       </c>
-      <c r="X7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z7">
+      <c r="Z7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -1391,70 +2882,76 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>4</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
         <v>32</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>20</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.04</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>7</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
         <v>43</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>31</v>
       </c>
-      <c r="T8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8">
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="W8" s="7">
+      <c r="Y8" s="7">
         <v>0.1</v>
       </c>
-      <c r="X8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z8">
+      <c r="Z8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -1471,238 +2968,861 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>4</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
         <v>32</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>20</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.04</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>7</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
         <v>43</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>31</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X9">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB9">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AC9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <v>0.04</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB10">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AC10">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="U9">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>0.04</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="V9">
+      <c r="X11">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="W9" s="7">
+      <c r="Y11" s="7">
         <v>0.1</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB11">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AC11">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>0.04</v>
+      </c>
+      <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X13">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB13">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AC13">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>70</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14">
+        <v>0.04</v>
+      </c>
+      <c r="R14">
+        <v>7</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" t="s">
         <v>59</v>
       </c>
-      <c r="Y9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z9">
+      <c r="V14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X14">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB14">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AA9">
+      <c r="AC14">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
         <v>4</v>
       </c>
-      <c r="I11">
+      <c r="K16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J11">
+      <c r="L16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
         <v>32</v>
       </c>
-      <c r="N11">
+      <c r="P16">
         <v>20</v>
       </c>
-      <c r="O11">
+      <c r="Q16">
         <v>0.04</v>
       </c>
-      <c r="P11">
+      <c r="R16">
         <v>7</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
         <v>43</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U16" t="s">
         <v>31</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V16" t="s">
         <v>23</v>
       </c>
-      <c r="U11">
+      <c r="W16">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="V11">
+      <c r="X16">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="W11" s="7">
+      <c r="Y16" s="7">
         <v>0.16</v>
       </c>
-      <c r="X11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z11">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AA11">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="Z16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB16">
+        <v>0.75</v>
+      </c>
+      <c r="AC16">
+        <f>AB16*0.968</f>
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
         <v>4</v>
       </c>
-      <c r="I12">
+      <c r="K17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J12">
+      <c r="L17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
         <v>32</v>
       </c>
-      <c r="N12">
+      <c r="P17">
         <v>20</v>
       </c>
-      <c r="O12">
+      <c r="Q17">
         <v>0.04</v>
       </c>
-      <c r="P12">
+      <c r="R17">
         <v>7</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>47</v>
-      </c>
-      <c r="S12" t="s">
-        <v>60</v>
-      </c>
-      <c r="T12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" t="s">
+        <v>24</v>
+      </c>
+      <c r="W17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="V12">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="X12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z12">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AA12">
-        <v>0.91500000000000004</v>
+      <c r="X17">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB17">
+        <v>0.75</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" ref="AC17:AC20" si="0">AB17*0.968</f>
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18">
+        <v>20</v>
+      </c>
+      <c r="Q18">
+        <v>0.04</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W18">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X18">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB18">
+        <v>0.75</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="0"/>
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>0.04</v>
+      </c>
+      <c r="R19">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" t="s">
+        <v>26</v>
+      </c>
+      <c r="W19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X19">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB19">
+        <v>0.75</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="0"/>
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>0.04</v>
+      </c>
+      <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X20">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB20">
+        <v>0.75</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="0"/>
+        <v>0.72599999999999998</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D12 E5:F9 E11:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:F15 H5:I11 E5:F11 D5:D15 H13:I20 D16:F20">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S9 S11:S12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U11 U13:U20">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1716,13 +3836,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,365 +3904,469 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="9">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" s="8">
+        <f>C2-D2^2/2</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G2" s="10">
+        <f>C2 - D2^2/2</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B3" s="1"/>
+      <c r="C3" s="9">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D3" s="7">
         <v>0.12</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="E2" s="8">
-        <f>B2-C2^2/2</f>
+      <c r="F3" s="8">
+        <f>C3-D3^2/2</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F2" s="10">
-        <f>B2 - C2^2/2</f>
+      <c r="G3" s="10">
+        <f>C3 - D3^2/2</f>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E12" si="0">B3-C3^2/2</f>
-        <v>0.01</v>
-      </c>
-      <c r="F3" s="10">
-        <f t="shared" ref="F3:F11" si="1">B3 - C3^2/2</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="1"/>
+      <c r="C4" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" ref="G4:G15" si="0">C4 - D4^2/2</f>
+        <v>4.2800000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="35">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="0"/>
+        <v>4.7800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="35">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="35">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>5.7800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>6.2800000000000009E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="35">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D9" s="7">
         <v>0.12</v>
       </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9" s="35">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F4" s="10">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f>C10-D10^2/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>7.22E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f>C11-D11^2/2</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <f>C12-D12^2/2</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="37">
+        <v>8.9791999999999997E-2</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" s="36">
+        <f t="shared" ref="F13:F14" si="1">C13-D13^2/2</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="38">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14" s="36">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
+        <v>6.0795179999999997E-2</v>
+      </c>
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="10">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="9">
-        <v>6.9800000000000001E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>6.0822000000000001E-2</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="1"/>
-        <v>6.0822000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="9">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="D8">
-        <v>29</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>3.32E-2</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="1"/>
-        <v>3.32E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="9">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.184</v>
-      </c>
-      <c r="D10">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4072000000000004E-2</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="1"/>
-        <v>6.4072000000000004E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="9">
+        <v>6.0795179999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="9">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ref="F15:F16" si="2">C15-D15^2/2</f>
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="1"/>
-        <v>4.0399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="9">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="9">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D16" s="7">
         <v>0.12</v>
       </c>
-      <c r="D12">
+      <c r="E16">
         <v>69</v>
       </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
+      <c r="F16" s="8">
+        <f t="shared" si="2"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12" si="2">B12 - C12^2/2</f>
+      <c r="G16" s="10">
+        <f t="shared" ref="G16" si="3">C16 - D16^2/2</f>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <f xml:space="preserve"> (0.0698 - 0.027)/0.13 * 0.12 + 0.027</f>
-        <v>6.6507692307692309E-2</v>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>0.075 + 0.172^2/2</f>
+        <v>8.9791999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="G6" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,34 +4869,633 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" s="25"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C36" s="25"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>2014</v>
+      </c>
+      <c r="B37" s="16">
+        <v>919</v>
+      </c>
       <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>2015</v>
+      </c>
+      <c r="B38" s="19">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>2016</v>
+      </c>
+      <c r="B39" s="19">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>2017</v>
+      </c>
+      <c r="B40" s="19">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>2018</v>
+      </c>
+      <c r="B41" s="19">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>2019</v>
+      </c>
+      <c r="B42" s="19">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>2020</v>
+      </c>
+      <c r="B43" s="19">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>2021</v>
+      </c>
+      <c r="B44" s="19">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>2022</v>
+      </c>
+      <c r="B45" s="19">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B46" s="22">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B47" s="22">
+        <f>B46+80.2</f>
+        <v>1496.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>2025</v>
+      </c>
+      <c r="B48" s="22">
+        <f>B47+80.2</f>
+        <v>1576.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>2026</v>
+      </c>
+      <c r="B49" s="22">
+        <f t="shared" ref="B49:B60" si="0">B48+80.2</f>
+        <v>1656.6000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>2027</v>
+      </c>
+      <c r="B50" s="22">
+        <f t="shared" si="0"/>
+        <v>1736.8000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>2028</v>
+      </c>
+      <c r="B51" s="22">
+        <f t="shared" si="0"/>
+        <v>1817.0000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>2029</v>
+      </c>
+      <c r="B52" s="22">
+        <f t="shared" si="0"/>
+        <v>1897.2000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>2030</v>
+      </c>
+      <c r="B53" s="22">
+        <f t="shared" si="0"/>
+        <v>1977.4000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>2031</v>
+      </c>
+      <c r="B54" s="22">
+        <f t="shared" si="0"/>
+        <v>2057.6000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>2032</v>
+      </c>
+      <c r="B55" s="22">
+        <f t="shared" si="0"/>
+        <v>2137.8000000000002</v>
+      </c>
+      <c r="D55">
+        <f>(2584-1461)/14</f>
+        <v>80.214285714285708</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="20">
+        <v>2033</v>
+      </c>
+      <c r="B56" s="22">
+        <f t="shared" si="0"/>
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>2034</v>
+      </c>
+      <c r="B57" s="22">
+        <f t="shared" si="0"/>
+        <v>2298.1999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>2035</v>
+      </c>
+      <c r="B58" s="22">
+        <f t="shared" si="0"/>
+        <v>2378.3999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>2036</v>
+      </c>
+      <c r="B59" s="22">
+        <f t="shared" si="0"/>
+        <v>2458.5999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>2037</v>
+      </c>
+      <c r="B60" s="22">
+        <f t="shared" si="0"/>
+        <v>2538.7999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <v>2038</v>
+      </c>
+      <c r="B61" s="19">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <v>2039</v>
+      </c>
+      <c r="B62" s="19">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>2040</v>
+      </c>
+      <c r="B63" s="19">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>2041</v>
+      </c>
+      <c r="B64" s="19">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="20">
+        <v>2042</v>
+      </c>
+      <c r="B65" s="22">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="41">
+        <v>801488530</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="41">
+        <v>856928805</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="41">
+        <v>912909170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="41">
+        <v>970452852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="41">
+        <v>1030325552</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="41">
+        <v>1093470116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="41">
+        <v>1161292912</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="41">
+        <v>1230195651</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="41">
+        <v>1300963525</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C6"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="2" max="7" width="22.5703125" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="31">
+        <v>12.3</v>
+      </c>
+      <c r="D3" s="31">
+        <v>11.49</v>
+      </c>
+      <c r="E3" s="33">
+        <f>D3/C3</f>
+        <v>0.93414634146341458</v>
+      </c>
+      <c r="F3" s="31">
+        <f>12.36+0.26</f>
+        <v>12.62</v>
+      </c>
+      <c r="G3" s="33">
+        <f>F3/C3</f>
+        <v>1.0260162601626015</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="31">
+        <v>10.1</v>
+      </c>
+      <c r="D4" s="31">
+        <v>9.6790000000000003</v>
+      </c>
+      <c r="E4" s="33">
+        <f t="shared" ref="E4:E14" si="0">D4/C4</f>
+        <v>0.95831683168316839</v>
+      </c>
+      <c r="F4" s="31">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G4" s="33">
+        <f t="shared" ref="G4:G14" si="1">F4/C4</f>
+        <v>0.99504950495049516</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="31">
+        <v>18.34</v>
+      </c>
+      <c r="D5" s="31">
+        <v>17.21</v>
+      </c>
+      <c r="E5" s="33">
+        <f t="shared" si="0"/>
+        <v>0.93838604143947657</v>
+      </c>
+      <c r="F5" s="31">
+        <f>18.17</f>
+        <v>18.170000000000002</v>
+      </c>
+      <c r="G5" s="33">
+        <f t="shared" si="1"/>
+        <v>0.99073064340239925</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="31">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="31">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" si="1"/>
+        <v>0.99024390243902438</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="31">
+        <v>16.77</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="31">
+        <v>16.62</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="1"/>
+        <v>0.99105545617173529</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="31">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="31">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="1"/>
+        <v>0.99077809798270888</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0.37</v>
+      </c>
+      <c r="E9" s="33">
+        <f t="shared" si="0"/>
+        <v>0.93198992443324935</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G9" s="33">
+        <f t="shared" si="1"/>
+        <v>0.9974811083123426</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.182</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0.17</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" si="0"/>
+        <v>0.93406593406593419</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0.1792</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="1"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0.122</v>
+      </c>
+      <c r="E11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.91044776119402981</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" si="1"/>
+        <v>1.0014925373134329</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="31">
+        <f>0.457-0.0127</f>
+        <v>0.44430000000000003</v>
+      </c>
+      <c r="D12" s="31">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="0"/>
+        <v>0.93855503038487498</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0.439</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="1"/>
+        <v>0.98807112311501233</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1.405</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.9978647686832739</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="1"/>
+        <v>0.9978647686832739</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="0"/>
+        <v>0.99127182044887785</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0.80149999999999999</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="1"/>
+        <v>0.99937655860349117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2681,7 +5504,7 @@
         <v>567435408</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2690,7 +5513,7 @@
         <v>112793616</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -2699,7 +5522,7 @@
         <v>121980480</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
   <si>
     <t>runname</t>
   </si>
@@ -560,6 +560,27 @@
   </si>
   <si>
     <t>RS4_FR075</t>
+  </si>
+  <si>
+    <t>ERC_cap.initiatives</t>
+  </si>
+  <si>
+    <t>RS1_cap</t>
+  </si>
+  <si>
+    <t>RS2_cap</t>
+  </si>
+  <si>
+    <t>RS3_cap</t>
+  </si>
+  <si>
+    <t>RS4_cap</t>
+  </si>
+  <si>
+    <t>RS5_cap</t>
+  </si>
+  <si>
+    <t>ERC_cap_NC50</t>
   </si>
 </sst>
 </file>
@@ -1718,13 +1739,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>150976</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133195</xdr:rowOff>
@@ -2575,10 +2596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AC20"/>
+  <dimension ref="A4:AE26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,20 +2607,22 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="9" width="24.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="15" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="11" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="17" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2622,73 +2645,79 @@
         <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2708,76 +2737,82 @@
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
         <v>32</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>20</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.04</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>7</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>31</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>95</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="AA5" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>58</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Y6" s="7"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2797,73 +2832,79 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>20</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.04</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>7</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
         <v>43</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>31</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>23</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="AA7" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>58</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>58</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2883,73 +2924,79 @@
         <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
         <v>32</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>20</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.04</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
         <v>43</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>31</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>24</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="AA8" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
         <v>58</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>58</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2969,73 +3016,79 @@
         <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>4</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>32</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>20</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.04</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>7</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
         <v>43</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>31</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>25</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="AA9" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
         <v>58</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>58</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3055,73 +3108,79 @@
         <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>4</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
         <v>32</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>20</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.04</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>7</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
         <v>43</v>
       </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>31</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>26</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="AA10" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AB10" t="s">
         <v>58</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>58</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3141,73 +3200,79 @@
         <v>0</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
         <v>4</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
         <v>32</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>20</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>0.04</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>7</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
         <v>43</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>31</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>27</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="AA11" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
         <v>58</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>58</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -3232,68 +3297,74 @@
       <c r="I13" t="b">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
         <v>32</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>20</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0.04</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>7</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
         <v>43</v>
       </c>
-      <c r="U13" t="s">
+      <c r="W13" t="s">
         <v>31</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>23</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="AA13" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AB13" t="s">
         <v>58</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>58</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -3313,76 +3384,82 @@
         <v>70</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
         <v>4</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
         <v>32</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>20</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>0.04</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>7</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
         <v>46</v>
       </c>
-      <c r="U14" t="s">
+      <c r="W14" t="s">
         <v>59</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>23</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="AA14" s="7">
         <v>0.12</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AB14" t="s">
         <v>58</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>58</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AA15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -3390,7 +3467,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3402,74 +3479,80 @@
         <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>4</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
         <v>32</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>20</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>0.04</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>7</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
         <v>43</v>
       </c>
-      <c r="U16" t="s">
+      <c r="W16" t="s">
         <v>31</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>23</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="AA16" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AB16" t="s">
         <v>58</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>58</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>0.75</v>
       </c>
-      <c r="AC16">
-        <f>AB16*0.968</f>
+      <c r="AE16">
+        <f>AD16*0.968</f>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -3477,7 +3560,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -3489,74 +3572,80 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>4</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
         <v>32</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>20</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>0.04</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>7</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
         <v>43</v>
       </c>
-      <c r="U17" t="s">
+      <c r="W17" t="s">
         <v>31</v>
       </c>
-      <c r="V17" t="s">
+      <c r="X17" t="s">
         <v>24</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="AA17" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AB17" t="s">
         <v>58</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>58</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>0.75</v>
       </c>
-      <c r="AC17">
-        <f t="shared" ref="AC17:AC20" si="0">AB17*0.968</f>
+      <c r="AE17">
+        <f t="shared" ref="AE17:AE20" si="0">AD17*0.968</f>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -3564,7 +3653,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -3576,74 +3665,80 @@
         <v>0</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
         <v>4</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
         <v>32</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>20</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>0.04</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>7</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
         <v>43</v>
       </c>
-      <c r="U18" t="s">
+      <c r="W18" t="s">
         <v>31</v>
       </c>
-      <c r="V18" t="s">
+      <c r="X18" t="s">
         <v>25</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="AA18" s="7">
         <v>0.16</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AB18" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
         <v>58</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>0.75</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -3651,7 +3746,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -3663,74 +3758,80 @@
         <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
         <v>4</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
         <v>32</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>20</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>0.04</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>7</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
         <v>43</v>
       </c>
-      <c r="U19" t="s">
+      <c r="W19" t="s">
         <v>31</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" t="s">
         <v>26</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="AA19" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AB19" t="s">
         <v>58</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>58</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>0.75</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3738,7 +3839,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -3750,79 +3851,545 @@
         <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
         <v>4</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
         <v>32</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>20</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>0.04</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>7</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
         <v>43</v>
       </c>
-      <c r="U20" t="s">
+      <c r="W20" t="s">
         <v>31</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" t="s">
         <v>27</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="AA20" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AB20" t="s">
         <v>58</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
         <v>58</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>0.75</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <v>0.04</v>
+      </c>
+      <c r="T22">
+        <v>7</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z22">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD22">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE22">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <v>0.04</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>43</v>
+      </c>
+      <c r="W23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y23">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z23">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD23">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE23">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24">
+        <v>20</v>
+      </c>
+      <c r="S24">
+        <v>0.04</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>43</v>
+      </c>
+      <c r="W24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z24">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD24">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE24">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25">
+        <v>20</v>
+      </c>
+      <c r="S25">
+        <v>0.04</v>
+      </c>
+      <c r="T25">
+        <v>7</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>43</v>
+      </c>
+      <c r="W25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z25">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD25">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE25">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26">
+        <v>20</v>
+      </c>
+      <c r="S26">
+        <v>0.04</v>
+      </c>
+      <c r="T26">
+        <v>7</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W26" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z26">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD26">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE26">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:F15 H5:I11 E5:F11 D5:D15 H13:I20 D16:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:F11 H13:K20 D22:F26 H22:K26 H5:K11 E13:F20 D5:D21">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U11 U13:U20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5:W11 W13:W20 W22:W26">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3906,7 +4473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -2599,7 +2599,7 @@
   <dimension ref="A4:AE26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4024,7 +4024,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -4116,7 +4116,7 @@
         <v>40</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -4208,7 +4208,7 @@
         <v>40</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -4300,7 +4300,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -4386,7 +4386,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:F11 H13:K20 D22:F26 H22:K26 H5:K11 E13:F20 D5:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:F11 H13:K20 D5:D21 H22:K26 H5:K11 E13:F20 D22:F26">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5:W11 W13:W20 W22:W26">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -2596,10 +2596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AE26"/>
+  <dimension ref="A4:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,7 +2820,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2912,7 +2912,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3272,36 +3272,39 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AA12" s="7"/>
+    </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
         <v>4</v>
@@ -3366,13 +3369,13 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3381,13 +3384,13 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -3405,7 +3408,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -3426,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W14" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="X14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y14">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Z14">
-        <v>8.2199999999999995E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="AA14" s="7">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AB14" t="s">
         <v>58</v>
@@ -3457,17 +3460,106 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AA15" s="7"/>
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15">
+        <v>20</v>
+      </c>
+      <c r="S15">
+        <v>0.04</v>
+      </c>
+      <c r="T15">
+        <v>7</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>43</v>
+      </c>
+      <c r="W15" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z15">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD15">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE15">
+        <v>0.91500000000000004</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3479,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -3527,16 +3619,16 @@
         <v>31</v>
       </c>
       <c r="X16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y16">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Z16">
-        <v>8.5300000000000001E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="AA16" s="7">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="AB16" t="s">
         <v>58</v>
@@ -3545,22 +3637,21 @@
         <v>58</v>
       </c>
       <c r="AD16">
-        <v>0.75</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="AE16">
-        <f>AD16*0.968</f>
-        <v>0.72599999999999998</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -3572,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -3620,7 +3711,7 @@
         <v>31</v>
       </c>
       <c r="X17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y17">
         <v>7.4999999999999997E-2</v>
@@ -3638,758 +3729,670 @@
         <v>58</v>
       </c>
       <c r="AD17">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE17">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AA18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19">
+        <v>20</v>
+      </c>
+      <c r="S19">
+        <v>0.04</v>
+      </c>
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z19">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD19">
         <v>0.75</v>
       </c>
-      <c r="AE17">
-        <f t="shared" ref="AE17:AE20" si="0">AD17*0.968</f>
+      <c r="AE19">
+        <f>AD19*0.968</f>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20">
+        <v>20</v>
+      </c>
+      <c r="S20">
+        <v>0.04</v>
+      </c>
+      <c r="T20">
+        <v>7</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z20">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD20">
+        <v>0.75</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" ref="AE20:AE23" si="0">AD20*0.968</f>
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>104</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
         <v>4</v>
       </c>
-      <c r="M18">
+      <c r="M21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
         <v>32</v>
       </c>
-      <c r="R18">
+      <c r="R21">
         <v>20</v>
       </c>
-      <c r="S18">
+      <c r="S21">
         <v>0.04</v>
       </c>
-      <c r="T18">
+      <c r="T21">
         <v>7</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
         <v>43</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W21" t="s">
         <v>31</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X21" t="s">
         <v>25</v>
       </c>
-      <c r="Y18">
+      <c r="Y21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z18">
+      <c r="Z21">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA21" s="7">
         <v>0.16</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB21" t="s">
         <v>58</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC21" t="s">
         <v>58</v>
       </c>
-      <c r="AD18">
+      <c r="AD21">
         <v>0.75</v>
       </c>
-      <c r="AE18">
+      <c r="AE21">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>105</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
         <v>4</v>
       </c>
-      <c r="M19">
+      <c r="M22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N19">
+      <c r="N22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
         <v>32</v>
       </c>
-      <c r="R19">
+      <c r="R22">
         <v>20</v>
       </c>
-      <c r="S19">
+      <c r="S22">
         <v>0.04</v>
       </c>
-      <c r="T19">
+      <c r="T22">
         <v>7</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
         <v>43</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W22" t="s">
         <v>31</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X22" t="s">
         <v>26</v>
       </c>
-      <c r="Y19">
+      <c r="Y22">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z19">
+      <c r="Z22">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AA22" s="7">
         <v>0.1</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB22" t="s">
         <v>58</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC22" t="s">
         <v>58</v>
       </c>
-      <c r="AD19">
+      <c r="AD22">
         <v>0.75</v>
       </c>
-      <c r="AE19">
+      <c r="AE22">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>103</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
         <v>4</v>
       </c>
-      <c r="M20">
+      <c r="M23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N20">
+      <c r="N23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
         <v>32</v>
       </c>
-      <c r="R20">
+      <c r="R23">
         <v>20</v>
       </c>
-      <c r="S20">
+      <c r="S23">
         <v>0.04</v>
       </c>
-      <c r="T20">
+      <c r="T23">
         <v>7</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
         <v>43</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W23" t="s">
         <v>31</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X23" t="s">
         <v>27</v>
       </c>
-      <c r="Y20">
+      <c r="Y23">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z20">
+      <c r="Z23">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AA23" s="7">
         <v>0.1</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB23" t="s">
         <v>58</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AC23" t="s">
         <v>58</v>
       </c>
-      <c r="AD20">
+      <c r="AD23">
         <v>0.75</v>
       </c>
-      <c r="AE20">
+      <c r="AE23">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28">
+        <v>20</v>
+      </c>
+      <c r="S28">
+        <v>0.04</v>
+      </c>
+      <c r="T28">
+        <v>7</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>43</v>
+      </c>
+      <c r="W28" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Z28">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD28">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AE28">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>70</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
         <v>4</v>
       </c>
-      <c r="M22">
+      <c r="M29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N22">
+      <c r="N29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
         <v>32</v>
       </c>
-      <c r="R22">
+      <c r="R29">
         <v>20</v>
       </c>
-      <c r="S22">
+      <c r="S29">
         <v>0.04</v>
       </c>
-      <c r="T22">
+      <c r="T29">
         <v>7</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
-        <v>43</v>
-      </c>
-      <c r="W22" t="s">
-        <v>31</v>
-      </c>
-      <c r="X22" t="s">
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>46</v>
+      </c>
+      <c r="W29" t="s">
+        <v>59</v>
+      </c>
+      <c r="X29" t="s">
         <v>23</v>
       </c>
-      <c r="Y22">
+      <c r="Y29">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z22">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="AA22" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="Z29">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AB29" t="s">
         <v>58</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AC29" t="s">
         <v>58</v>
       </c>
-      <c r="AD22">
+      <c r="AD29">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE22">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N23">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23">
-        <v>20</v>
-      </c>
-      <c r="S23">
-        <v>0.04</v>
-      </c>
-      <c r="T23">
-        <v>7</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23" t="s">
-        <v>43</v>
-      </c>
-      <c r="W23" t="s">
-        <v>31</v>
-      </c>
-      <c r="X23" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y23">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Z23">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="AA23" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD23">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AE23">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24">
-        <v>20</v>
-      </c>
-      <c r="S24">
-        <v>0.04</v>
-      </c>
-      <c r="T24">
-        <v>7</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24" t="s">
-        <v>43</v>
-      </c>
-      <c r="W24" t="s">
-        <v>31</v>
-      </c>
-      <c r="X24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y24">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Z24">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="AA24" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD24">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AE24">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N25">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25">
-        <v>20</v>
-      </c>
-      <c r="S25">
-        <v>0.04</v>
-      </c>
-      <c r="T25">
-        <v>7</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25" t="s">
-        <v>43</v>
-      </c>
-      <c r="W25" t="s">
-        <v>31</v>
-      </c>
-      <c r="X25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y25">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Z25">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="AA25" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD25">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AE25">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N26">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O26" t="b">
-        <v>1</v>
-      </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26">
-        <v>20</v>
-      </c>
-      <c r="S26">
-        <v>0.04</v>
-      </c>
-      <c r="T26">
-        <v>7</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
-        <v>43</v>
-      </c>
-      <c r="W26" t="s">
-        <v>31</v>
-      </c>
-      <c r="X26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Z26">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="AA26" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD26">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AE26">
+      <c r="AE29">
         <v>0.91500000000000004</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:F11 H13:K20 D5:D21 H22:K26 H5:K11 E13:F20 D22:F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:D29 H5:K23 E28:F29 H28:K29 E5:F23 D5:D24">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5:W11 W13:W20 W22:W26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W28:W29 W5:W23">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4474,7 +4477,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -2599,7 +2599,7 @@
   <dimension ref="A4:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,7 +2820,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2912,7 +2912,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3375,7 +3375,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3467,7 +3467,7 @@
         <v>40</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -2599,7 +2599,7 @@
   <dimension ref="A4:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D13" sqref="D13:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,7 +2912,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3375,7 +3375,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3467,7 +3467,7 @@
         <v>40</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -4477,7 +4477,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -2599,7 +2599,7 @@
   <dimension ref="A4:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,7 +3283,7 @@
         <v>40</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="119">
   <si>
     <t>runname</t>
   </si>
@@ -581,6 +581,24 @@
   </si>
   <si>
     <t>ERC_cap_NC50</t>
+  </si>
+  <si>
+    <t>RS1_cap.allTiers</t>
+  </si>
+  <si>
+    <t>RS2_cap.allTiers</t>
+  </si>
+  <si>
+    <t>RS3_cap.allTiers</t>
+  </si>
+  <si>
+    <t>RS4_cap.allTiers</t>
+  </si>
+  <si>
+    <t>RS5_cap.allTiers</t>
+  </si>
+  <si>
+    <t>ERC_cap.initiatives.allTiers</t>
   </si>
 </sst>
 </file>
@@ -1739,13 +1757,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>150976</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133195</xdr:rowOff>
@@ -2596,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AE29"/>
+  <dimension ref="A4:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,22 +2625,23 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="11" width="24.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="17" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="12" width="24.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="18" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2645,79 +2664,82 @@
         <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AF4" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2743,76 +2765,79 @@
         <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>4</v>
-      </c>
-      <c r="M5">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O5" t="b">
-        <v>1</v>
+      <c r="O5">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
         <v>32</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>20</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.04</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>7</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>43</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>31</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>95</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AB5" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>58</v>
       </c>
       <c r="AC5" t="s">
         <v>58</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AA6" s="7"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2838,73 +2863,76 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>4</v>
-      </c>
-      <c r="M7">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O7" t="b">
-        <v>1</v>
+      <c r="O7">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>20</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.04</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>7</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
         <v>43</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>31</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>23</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AB7" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>58</v>
       </c>
       <c r="AC7" t="s">
         <v>58</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE7">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2912,7 +2940,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2930,73 +2958,76 @@
         <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
         <v>4</v>
-      </c>
-      <c r="M8">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O8" t="b">
-        <v>1</v>
+      <c r="O8">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
         <v>32</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>20</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.04</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>7</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
         <v>43</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>31</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>24</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AB8" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>58</v>
       </c>
       <c r="AC8" t="s">
         <v>58</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3004,7 +3035,7 @@
         <v>40</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3022,73 +3053,76 @@
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
         <v>4</v>
-      </c>
-      <c r="M9">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O9" t="b">
-        <v>1</v>
+      <c r="O9">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
         <v>32</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>20</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.04</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>7</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
         <v>43</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>31</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>25</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AB9" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>58</v>
       </c>
       <c r="AC9" t="s">
         <v>58</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE9">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3096,7 +3130,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3114,73 +3148,76 @@
         <v>0</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
         <v>4</v>
-      </c>
-      <c r="M10">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O10" t="b">
-        <v>1</v>
+      <c r="O10">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
         <v>32</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>20</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.04</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>7</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
         <v>43</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>31</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>26</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AB10" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>58</v>
       </c>
       <c r="AC10" t="s">
         <v>58</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE10">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3188,7 +3225,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3206,76 +3243,79 @@
         <v>0</v>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
         <v>4</v>
-      </c>
-      <c r="M11">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O11" t="b">
-        <v>1</v>
+      <c r="O11">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
         <v>32</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>20</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.04</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>7</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
         <v>43</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>31</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>27</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AB11" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>58</v>
       </c>
       <c r="AC11" t="s">
         <v>58</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE11">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AA12" s="7"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB12" s="7"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -3295,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -3306,68 +3346,71 @@
       <c r="K13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
         <v>4</v>
-      </c>
-      <c r="M13">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O13" t="b">
-        <v>1</v>
+      <c r="O13">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
         <v>32</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>20</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>0.04</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>7</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
         <v>43</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>31</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>23</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AB13" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>58</v>
       </c>
       <c r="AC13" t="s">
         <v>58</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -3375,7 +3418,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3387,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -3398,68 +3441,71 @@
       <c r="K14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>4</v>
-      </c>
-      <c r="M14">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O14" t="b">
-        <v>1</v>
+      <c r="O14">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
         <v>32</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>20</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>0.04</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>7</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
         <v>43</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>31</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>24</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AB14" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>58</v>
       </c>
       <c r="AC14" t="s">
         <v>58</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE14">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -3467,7 +3513,7 @@
         <v>40</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3479,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -3490,68 +3536,71 @@
       <c r="K15" t="b">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
         <v>4</v>
-      </c>
-      <c r="M15">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O15" t="b">
-        <v>1</v>
+      <c r="O15">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
         <v>32</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>20</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.04</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>7</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
         <v>43</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>31</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>25</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AB15" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>58</v>
       </c>
       <c r="AC15" t="s">
         <v>58</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE15">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -3559,7 +3608,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3571,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -3582,68 +3631,71 @@
       <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
         <v>4</v>
-      </c>
-      <c r="M16">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O16" t="b">
-        <v>1</v>
+      <c r="O16">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
         <v>32</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>20</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.04</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>7</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
         <v>43</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>31</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>26</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AB16" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>58</v>
       </c>
       <c r="AC16" t="s">
         <v>58</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE16">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -3651,7 +3703,7 @@
         <v>40</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -3663,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -3674,79 +3726,82 @@
       <c r="K17" t="b">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
         <v>4</v>
-      </c>
-      <c r="M17">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O17" t="b">
-        <v>1</v>
+      <c r="O17">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
         <v>32</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>20</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.04</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>7</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
         <v>43</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>31</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>27</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AB17" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>58</v>
       </c>
       <c r="AC17" t="s">
         <v>58</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE17">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AA18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -3758,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -3769,77 +3824,79 @@
       <c r="K19" t="b">
         <v>1</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>4</v>
-      </c>
-      <c r="M19">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O19" t="b">
-        <v>1</v>
+      <c r="O19">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
         <v>32</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>20</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.04</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>7</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
         <v>43</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>31</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>23</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AB19" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>58</v>
       </c>
       <c r="AC19" t="s">
         <v>58</v>
       </c>
-      <c r="AD19">
-        <v>0.75</v>
+      <c r="AD19" t="s">
+        <v>58</v>
       </c>
       <c r="AE19">
-        <f>AD19*0.968</f>
-        <v>0.72599999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AF19">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -3851,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -3862,77 +3919,79 @@
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
         <v>4</v>
-      </c>
-      <c r="M20">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O20" t="b">
-        <v>1</v>
+      <c r="O20">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
         <v>32</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>20</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.04</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>7</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
         <v>43</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>31</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>24</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AA20" s="7">
+      <c r="AB20" s="7">
         <v>0.1</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>58</v>
       </c>
       <c r="AC20" t="s">
         <v>58</v>
       </c>
-      <c r="AD20">
-        <v>0.75</v>
+      <c r="AD20" t="s">
+        <v>58</v>
       </c>
       <c r="AE20">
-        <f t="shared" ref="AE20:AE23" si="0">AD20*0.968</f>
-        <v>0.72599999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AF20">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -3944,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -3955,444 +4014,939 @@
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
         <v>4</v>
-      </c>
-      <c r="M21">
-        <v>0.14000000000000001</v>
       </c>
       <c r="N21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O21" t="b">
-        <v>1</v>
+      <c r="O21">
+        <v>0.14000000000000001</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
         <v>32</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>20</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.04</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>7</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
         <v>43</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>31</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>25</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AA21" s="7">
+      <c r="AB21" s="7">
         <v>0.16</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>58</v>
       </c>
       <c r="AC21" t="s">
         <v>58</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE21">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AF21">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>0.04</v>
+      </c>
+      <c r="U22">
+        <v>7</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z22">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AA22">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE22">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AF22">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23">
+        <v>20</v>
+      </c>
+      <c r="T23">
+        <v>0.04</v>
+      </c>
+      <c r="U23">
+        <v>7</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z23">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AA23">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE23">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="AF23">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25">
+        <v>20</v>
+      </c>
+      <c r="T25">
+        <v>0.04</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AA25">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE25">
         <v>0.75</v>
       </c>
-      <c r="AE21">
+      <c r="AF25">
+        <f>AE25*0.968</f>
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26">
+        <v>20</v>
+      </c>
+      <c r="T26">
+        <v>0.04</v>
+      </c>
+      <c r="U26">
+        <v>7</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>43</v>
+      </c>
+      <c r="X26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AA26">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE26">
+        <v>0.75</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" ref="AF26:AF29" si="0">AE26*0.968</f>
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27">
+        <v>20</v>
+      </c>
+      <c r="T27">
+        <v>0.04</v>
+      </c>
+      <c r="U27">
+        <v>7</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>43</v>
+      </c>
+      <c r="X27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z27">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AA27">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE27">
+        <v>0.75</v>
+      </c>
+      <c r="AF27">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>105</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
         <v>4</v>
       </c>
-      <c r="M22">
+      <c r="N28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N22">
+      <c r="O28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
         <v>32</v>
       </c>
-      <c r="R22">
+      <c r="S28">
         <v>20</v>
       </c>
-      <c r="S22">
+      <c r="T28">
         <v>0.04</v>
       </c>
-      <c r="T22">
+      <c r="U28">
         <v>7</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
         <v>43</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X28" t="s">
         <v>31</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y28" t="s">
         <v>26</v>
       </c>
-      <c r="Y22">
+      <c r="Z28">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z22">
+      <c r="AA28">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AB28" s="7">
         <v>0.1</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC28" t="s">
         <v>58</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD28" t="s">
         <v>58</v>
       </c>
-      <c r="AD22">
+      <c r="AE28">
         <v>0.75</v>
       </c>
-      <c r="AE22">
+      <c r="AF28">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>103</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
         <v>4</v>
       </c>
-      <c r="M23">
+      <c r="N29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N23">
+      <c r="O29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
         <v>32</v>
       </c>
-      <c r="R23">
+      <c r="S29">
         <v>20</v>
       </c>
-      <c r="S23">
+      <c r="T29">
         <v>0.04</v>
       </c>
-      <c r="T23">
+      <c r="U29">
         <v>7</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
         <v>43</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X29" t="s">
         <v>31</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y29" t="s">
         <v>27</v>
       </c>
-      <c r="Y23">
+      <c r="Z29">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z23">
+      <c r="AA29">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AA23" s="7">
+      <c r="AB29" s="7">
         <v>0.1</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC29" t="s">
         <v>58</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD29" t="s">
         <v>58</v>
       </c>
-      <c r="AD23">
+      <c r="AE29">
         <v>0.75</v>
       </c>
-      <c r="AE23">
+      <c r="AF29">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
         <v>4</v>
       </c>
-      <c r="M28">
+      <c r="N34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N28">
+      <c r="O34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O28" t="b">
-        <v>1</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
         <v>32</v>
       </c>
-      <c r="R28">
+      <c r="S34">
         <v>20</v>
       </c>
-      <c r="S28">
+      <c r="T34">
         <v>0.04</v>
       </c>
-      <c r="T28">
+      <c r="U34">
         <v>7</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
         <v>43</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X34" t="s">
         <v>31</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y34" t="s">
         <v>23</v>
       </c>
-      <c r="Y28">
+      <c r="Z34">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z28">
+      <c r="AA34">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AA28" s="7">
+      <c r="AB34" s="7">
         <v>0.16</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC34" t="s">
         <v>58</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD34" t="s">
         <v>58</v>
       </c>
-      <c r="AD28">
+      <c r="AE34">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE28">
+      <c r="AF34">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>70</v>
       </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
         <v>4</v>
       </c>
-      <c r="M29">
+      <c r="N35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N29">
+      <c r="O35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O29" t="b">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
         <v>32</v>
       </c>
-      <c r="R29">
+      <c r="S35">
         <v>20</v>
       </c>
-      <c r="S29">
+      <c r="T35">
         <v>0.04</v>
       </c>
-      <c r="T29">
+      <c r="U35">
         <v>7</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
         <v>46</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X35" t="s">
         <v>59</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y35" t="s">
         <v>23</v>
       </c>
-      <c r="Y29">
+      <c r="Z35">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z29">
+      <c r="AA35">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AA29" s="7">
+      <c r="AB35" s="7">
         <v>0.12</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC35" t="s">
         <v>58</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD35" t="s">
         <v>58</v>
       </c>
-      <c r="AD29">
+      <c r="AE35">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AE29">
+      <c r="AF35">
         <v>0.91500000000000004</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:D29 H5:K23 E28:F29 H28:K29 E5:F23 D5:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D35 E19:F29 E34:F35 H34:L35 D19:D30 D5:F18 H5:L29">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W28:W29 W5:W23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X34:X35 X5:X29">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -2616,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3801,7 +3801,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -3896,7 +3896,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -3991,7 +3991,7 @@
         <v>40</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -4086,7 +4086,7 @@
         <v>40</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -4181,7 +4181,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -4279,7 +4279,7 @@
         <v>40</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -4471,7 +4471,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -4567,7 +4567,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>40</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -4943,7 +4943,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D35 E19:F29 E34:F35 H34:L35 D19:D30 D5:F18 H5:L29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D35 E19:F29 E34:F35 H34:L35 H5:L29 D5:F18 D19:D30">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X34:X35 X5:X29">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -2617,7 +2617,7 @@
   <dimension ref="A4:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D29"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,7 +5031,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -2616,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,7 +2845,7 @@
         <v>40</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3801,7 +3801,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -3896,7 +3896,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -3991,7 +3991,7 @@
         <v>40</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -4086,7 +4086,7 @@
         <v>40</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -4181,7 +4181,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -4943,7 +4943,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D35 E19:F29 E34:F35 H34:L35 D19:D30 D5:F18 H5:L29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D35 E19:F29 E34:F35 H34:L35 H5:L29 D5:F18 D19:D30">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X34:X35 X5:X29">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="125">
   <si>
     <t>runname</t>
   </si>
@@ -599,6 +599,24 @@
   </si>
   <si>
     <t>ERC_cap.initiatives.allTiers</t>
+  </si>
+  <si>
+    <t>run.returnScn</t>
+  </si>
+  <si>
+    <t>run.policyScn</t>
+  </si>
+  <si>
+    <t>noCap</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>cap.allTiers</t>
+  </si>
+  <si>
+    <t>FR075</t>
   </si>
 </sst>
 </file>
@@ -1757,13 +1775,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>150976</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133195</xdr:rowOff>
@@ -2614,734 +2632,773 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AF35"/>
+  <dimension ref="A4:AH35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="12" width="24.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="18" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="14" width="24.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="20" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AF4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
       <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
         <v>32</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>20</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.04</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>7</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5" t="s">
-        <v>31</v>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA5" t="s">
         <v>95</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA5">
-        <v>8.5300000000000001E-2</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AC5">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AE5" t="s">
         <v>58</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>58</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AB6" s="7"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AD6" s="7"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
       <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
       <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
         <v>32</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>20</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.04</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>7</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
         <v>43</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>23</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AD7" s="7">
         <v>0.16</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>58</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AF7" t="s">
         <v>58</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
       <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
         <v>4</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
         <v>32</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>20</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.04</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>7</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
         <v>43</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>24</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AD8" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>58</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>58</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="G9" t="b">
+        <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
         <v>4</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
         <v>32</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>20</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.04</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>7</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
         <v>43</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>31</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
         <v>25</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AD9" s="7">
         <v>0.16</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>58</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
         <v>58</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="G10" t="b">
+        <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
         <v>4</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
         <v>32</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>20</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.04</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>7</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
         <v>43</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>31</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AA10" t="s">
         <v>26</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AD10" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>58</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>58</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
       <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>0</v>
+      <c r="G11" t="b">
+        <v>1</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
         <v>4</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
         <v>32</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>20</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.04</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>7</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
         <v>43</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>27</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AD11" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>58</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AB12" s="7"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AD12" s="7"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>107</v>
       </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
       <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -3349,94 +3406,100 @@
       <c r="L13" t="b">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
         <v>4</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
         <v>32</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>20</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.04</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>7</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
         <v>43</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Z13" t="s">
         <v>31</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AA13" t="s">
         <v>23</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AD13" s="7">
         <v>0.16</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AE13" t="s">
         <v>58</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>58</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>0</v>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -3444,94 +3507,100 @@
       <c r="L14" t="b">
         <v>1</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
         <v>4</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
         <v>32</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>20</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.04</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>7</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
         <v>43</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Z14" t="s">
         <v>31</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AA14" t="s">
         <v>24</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AD14" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>58</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>58</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>109</v>
       </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>0</v>
+      <c r="G15" t="b">
+        <v>1</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -3539,94 +3608,100 @@
       <c r="L15" t="b">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
         <v>4</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
         <v>32</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>20</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>0.04</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>7</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
         <v>43</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Z15" t="s">
         <v>31</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AA15" t="s">
         <v>25</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AD15" s="7">
         <v>0.16</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AE15" t="s">
         <v>58</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>58</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>110</v>
       </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
       <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>0</v>
+      <c r="G16" t="b">
+        <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -3634,94 +3709,100 @@
       <c r="L16" t="b">
         <v>1</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
         <v>4</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
         <v>32</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>20</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>0.04</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>7</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
         <v>43</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Z16" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AA16" t="s">
         <v>26</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AD16" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AE16" t="s">
         <v>58</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>58</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>111</v>
       </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>0</v>
+      <c r="G17" t="b">
+        <v>1</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -3729,1051 +3810,1111 @@
       <c r="L17" t="b">
         <v>1</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
         <v>4</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
         <v>32</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>20</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>0.04</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>7</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
         <v>43</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Z17" t="s">
         <v>31</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AA17" t="s">
         <v>27</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AD17" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AE17" t="s">
         <v>58</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>58</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AB18" s="7"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AD18" s="7"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>113</v>
       </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
       <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
       <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
-      <c r="I19" t="b">
+      <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
         <v>4</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
         <v>32</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>20</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>0.04</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>7</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
         <v>43</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Z19" t="s">
         <v>31</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AA19" t="s">
         <v>23</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AD19" s="7">
         <v>0.16</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>58</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AF19" t="s">
         <v>58</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>114</v>
       </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>0</v>
+      <c r="G20" t="b">
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
-      <c r="I20" t="b">
+      <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
         <v>4</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
         <v>32</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>20</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>0.04</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>7</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s">
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
         <v>43</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Z20" t="s">
         <v>31</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AA20" t="s">
         <v>24</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AD20" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AE20" t="s">
         <v>58</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
         <v>58</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>115</v>
       </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>0</v>
+      <c r="G21" t="b">
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
-      <c r="I21" t="b">
+      <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
         <v>4</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
         <v>32</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>20</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>0.04</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>7</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
         <v>43</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Z21" t="s">
         <v>31</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="AA21" t="s">
         <v>25</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA21">
+      <c r="AC21">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AB21" s="7">
+      <c r="AD21" s="7">
         <v>0.16</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AE21" t="s">
         <v>58</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AF21" t="s">
         <v>58</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>116</v>
       </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
-      <c r="G22">
-        <v>0</v>
+      <c r="G22" t="b">
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="I22" t="b">
+      <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
         <v>4</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
         <v>32</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>20</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>0.04</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>7</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22" t="s">
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
         <v>43</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Z22" t="s">
         <v>31</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" t="s">
         <v>26</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AD22" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>58</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AF22" t="s">
         <v>58</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>117</v>
       </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
       <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>0</v>
+      <c r="G23" t="b">
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
-      <c r="I23" t="b">
+      <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
         <v>4</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
         <v>32</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>20</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>0.04</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>7</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Z23" t="s">
         <v>31</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="AA23" t="s">
         <v>27</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AD23" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AE23" t="s">
         <v>58</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AF23" t="s">
         <v>58</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF23">
+      <c r="AH23">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AB24" s="7"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AD24" s="7"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
       <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>0</v>
+      <c r="G25" t="b">
+        <v>1</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
         <v>4</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="R25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
         <v>32</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>20</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>0.04</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>7</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s">
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
         <v>43</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Z25" t="s">
         <v>31</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="AA25" t="s">
         <v>23</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AD25" s="7">
         <v>0.16</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AE25" t="s">
         <v>58</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AF25" t="s">
         <v>58</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <v>0.75</v>
       </c>
-      <c r="AF25">
-        <f>AE25*0.968</f>
+      <c r="AH25">
+        <f>AG25*0.968</f>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
       <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
         <v>40</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>0</v>
+      <c r="G26" t="b">
+        <v>1</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
         <v>4</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>1</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
         <v>32</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>20</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>0.04</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>7</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="s">
         <v>43</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Z26" t="s">
         <v>31</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AA26" t="s">
         <v>24</v>
       </c>
-      <c r="Z26">
+      <c r="AB26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA26">
+      <c r="AC26">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AD26" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AE26" t="s">
         <v>58</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AF26" t="s">
         <v>58</v>
       </c>
-      <c r="AE26">
+      <c r="AG26">
         <v>0.75</v>
       </c>
-      <c r="AF26">
-        <f t="shared" ref="AF26:AF29" si="0">AE26*0.968</f>
+      <c r="AH26">
+        <f t="shared" ref="AH26:AH29" si="0">AG26*0.968</f>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
       <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" t="s">
         <v>40</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
-      <c r="G27">
-        <v>0</v>
+      <c r="G27" t="b">
+        <v>1</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
         <v>4</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="R27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
         <v>32</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>20</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>0.04</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>7</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27" t="s">
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="s">
         <v>43</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Z27" t="s">
         <v>31</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AA27" t="s">
         <v>25</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA27">
+      <c r="AC27">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AB27" s="7">
+      <c r="AD27" s="7">
         <v>0.16</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AE27" t="s">
         <v>58</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AF27" t="s">
         <v>58</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
         <v>0.75</v>
       </c>
-      <c r="AF27">
+      <c r="AH27">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>105</v>
       </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
       <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
-      <c r="G28">
-        <v>0</v>
+      <c r="G28" t="b">
+        <v>1</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
         <v>4</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="b">
-        <v>1</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="R28" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
         <v>32</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>20</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>0.04</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>7</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="s">
         <v>43</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Z28" t="s">
         <v>31</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AA28" t="s">
         <v>26</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA28">
+      <c r="AC28">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AD28" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AE28" t="s">
         <v>58</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AF28" t="s">
         <v>58</v>
       </c>
-      <c r="AE28">
+      <c r="AG28">
         <v>0.75</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>103</v>
       </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
       <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="G29">
-        <v>0</v>
+      <c r="G29" t="b">
+        <v>1</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
         <v>4</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
         <v>32</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>20</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>0.04</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>7</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
         <v>43</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Z29" t="s">
         <v>31</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="AA29" t="s">
         <v>27</v>
       </c>
-      <c r="Z29">
+      <c r="AB29">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA29">
+      <c r="AC29">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="AB29" s="7">
+      <c r="AD29" s="7">
         <v>0.1</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AE29" t="s">
         <v>58</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AF29" t="s">
         <v>58</v>
       </c>
-      <c r="AE29">
+      <c r="AG29">
         <v>0.75</v>
       </c>
-      <c r="AF29">
+      <c r="AH29">
         <f t="shared" si="0"/>
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
-      <c r="G34">
-        <v>0</v>
+      <c r="G34" t="b">
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
-      <c r="I34" t="b">
+      <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="b">
@@ -4785,168 +4926,174 @@
       <c r="L34" t="b">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
         <v>4</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="b">
-        <v>1</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
         <v>32</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>20</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>0.04</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>7</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34" t="s">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
         <v>43</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Z34" t="s">
         <v>31</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="AA34" t="s">
         <v>23</v>
       </c>
-      <c r="Z34">
+      <c r="AB34">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA34">
+      <c r="AC34">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="AB34" s="7">
+      <c r="AD34" s="7">
         <v>0.16</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AE34" t="s">
         <v>58</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AF34" t="s">
         <v>58</v>
       </c>
-      <c r="AE34">
+      <c r="AG34">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF34">
+      <c r="AH34">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
       <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>70</v>
       </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="b">
-        <v>1</v>
-      </c>
-      <c r="M35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
         <v>4</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="b">
-        <v>1</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
         <v>32</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>20</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>0.04</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>7</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35" t="s">
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="s">
         <v>46</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Z35" t="s">
         <v>59</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="AA35" t="s">
         <v>23</v>
       </c>
-      <c r="Z35">
+      <c r="AB35">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AA35">
+      <c r="AC35">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AB35" s="7">
+      <c r="AD35" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AE35" t="s">
         <v>58</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AF35" t="s">
         <v>58</v>
       </c>
-      <c r="AE35">
+      <c r="AG35">
         <v>0.94599999999999995</v>
       </c>
-      <c r="AF35">
+      <c r="AH35">
         <v>0.91500000000000004</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D35 E19:F29 E34:F35 H34:L35 H5:L29 D5:F18 D19:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 G34:H35 J34:N35 J5:N29 G5:H29 F5:F30">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X34:X35 X5:X29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z34:Z35 Z5:Z29">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -12,7 +12,8 @@
     <sheet name="returns" sheetId="2" r:id="rId3"/>
     <sheet name="GASB67 Cash flow" sheetId="5" r:id="rId4"/>
     <sheet name="Calibration" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
+    <sheet name="Calibration_2016" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="162">
   <si>
     <t>runname</t>
   </si>
@@ -174,15 +175,6 @@
   </si>
   <si>
     <t>RS.closed</t>
-  </si>
-  <si>
-    <t>Retirees</t>
-  </si>
-  <si>
-    <t>disability</t>
-  </si>
-  <si>
-    <t>Ben</t>
   </si>
   <si>
     <t>useAVunrecReturn</t>
@@ -617,6 +609,126 @@
   </si>
   <si>
     <t>FR075</t>
+  </si>
+  <si>
+    <t>AV2016</t>
+  </si>
+  <si>
+    <t>monthly ben</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>retiree</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>beneficiaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n </t>
+  </si>
+  <si>
+    <t>Total ben</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>B w/o init DROP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     year         NC            AL   nactives</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1,] 2017   23532418 -1.007691e-08   602.2775</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2,] 2018   48755524  2.442927e+07  1161.0733</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3,] 2019   76794354  7.686836e+07  1705.7407</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4,] 2020  107801045  1.622734e+08  2242.6539</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5,] 2021  142310423  2.861064e+08  2779.8191</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6,] 2022  180914523  4.547740e+08  3328.2570</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7,] 2023  222258164  6.757409e+08  3856.7028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8,] 2024  266545216  9.555896e+08  4371.8435</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9,] 2025  314066180  1.301558e+09  4878.2614</t>
+  </si>
+  <si>
+    <t>[10,] 2026  365214799  1.721678e+09  5381.3862</t>
+  </si>
+  <si>
+    <t>[11,] 2027  420424639  2.224936e+09  5884.8533</t>
+  </si>
+  <si>
+    <t>[12,] 2028  478664683  2.821377e+09  6369.5147</t>
+  </si>
+  <si>
+    <t>[13,] 2029  540122764  3.520656e+09  6840.5827</t>
+  </si>
+  <si>
+    <t>[14,] 2030  605148946  4.333262e+09  7301.9198</t>
+  </si>
+  <si>
+    <t>[15,] 2031  674241008  5.270748e+09  7758.6701</t>
+  </si>
+  <si>
+    <t>[16,] 2032  747090595  6.345952e+09  8203.1291</t>
+  </si>
+  <si>
+    <t>[17,] 2033  823073521  7.572245e+09  8624.7538</t>
+  </si>
+  <si>
+    <t>[18,] 2034  902510639  8.963283e+09  9027.9877</t>
+  </si>
+  <si>
+    <t>[19,] 2035  985837674  1.053396e+10  9417.6801</t>
+  </si>
+  <si>
+    <t>[20,] 2036 1073412789  1.230061e+10  9796.7019</t>
+  </si>
+  <si>
+    <t>[21,] 2037 1163932379  1.423506e+10 10157.5739</t>
+  </si>
+  <si>
+    <t>[22,] 2038 1257189155  1.633251e+10 10498.8293</t>
+  </si>
+  <si>
+    <t>[23,] 2039 1353129020  1.859156e+10 10821.4700</t>
+  </si>
+  <si>
+    <t>[24,] 2040 1451865463  2.100628e+10 11128.5938</t>
+  </si>
+  <si>
+    <t>[25,] 2041 1552767169  2.356478e+10 11415.5331</t>
+  </si>
+  <si>
+    <t>[26,] 2042 1654898917  2.624776e+10 11676.0787</t>
+  </si>
+  <si>
+    <t>[27,] 2043 1757856485  2.903504e+10 11909.5183</t>
+  </si>
+  <si>
+    <t>[28,] 2044 1861294134  3.189723e+10 12116.2831</t>
+  </si>
+  <si>
+    <t>[29,] 2045 1964801350  3.480022e+10 12296.0002</t>
   </si>
 </sst>
 </file>
@@ -2335,6 +2447,431 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2DCB43-3DA5-4FD4-BCAB-FC10424603A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="3276600"/>
+          <a:ext cx="5448300" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Duration: </a:t>
+          </a:r>
+          <a:endParaRPr lang="x-none" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AAL DR:   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>18174710587</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AAL +1%:  AAL: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16192752562    (AL.act: 6941488396,      PVFB.act = 9984484403)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                   Change: 16192752562/18174710587 -1=-0.1091 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                   Target: -10.9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AAL -1%    AAL: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20564421674   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (AL.act = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9573882561</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,    PVFB.act = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>15528002079</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Change:   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20564421674/18174710587 -1=0.1315 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                  Target: 13.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Duration: (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20564421674 - 16192752562)/(2*18174710587) = 0.1203 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="x-none" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Target: 12.12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2634,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -2685,25 +3222,25 @@
         <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>18</v>
@@ -2754,21 +3291,21 @@
         <v>11</v>
       </c>
       <c r="AE4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH4" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -2834,10 +3371,10 @@
         <v>46</v>
       </c>
       <c r="Z5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AA5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AB5">
         <v>7.4999999999999997E-2</v>
@@ -2849,20 +3386,26 @@
         <v>0.12</v>
       </c>
       <c r="AE5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG5">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH5">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AD6" s="7"/>
+      <c r="AG6">
+        <v>0.91</v>
+      </c>
+      <c r="AH6">
+        <v>0.93899999999999995</v>
+      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2872,7 +3415,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -2953,16 +3496,16 @@
         <v>0.16</v>
       </c>
       <c r="AE7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG7">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH7">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -2973,7 +3516,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -3054,16 +3597,16 @@
         <v>0.1</v>
       </c>
       <c r="AE8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG8">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH8">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -3074,7 +3617,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -3155,16 +3698,16 @@
         <v>0.16</v>
       </c>
       <c r="AE9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG9">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH9">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -3175,7 +3718,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -3256,16 +3799,16 @@
         <v>0.1</v>
       </c>
       <c r="AE10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG10">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH10">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -3276,7 +3819,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -3357,16 +3900,16 @@
         <v>0.1</v>
       </c>
       <c r="AE11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG11">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH11">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -3374,13 +3917,13 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -3461,27 +4004,27 @@
         <v>0.16</v>
       </c>
       <c r="AE13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG13">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH13">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -3562,27 +4105,27 @@
         <v>0.1</v>
       </c>
       <c r="AE14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG14">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH14">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -3663,27 +4206,27 @@
         <v>0.16</v>
       </c>
       <c r="AE15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG15">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH15">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
@@ -3764,27 +4307,27 @@
         <v>0.1</v>
       </c>
       <c r="AE16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG16">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH16">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -3865,16 +4408,16 @@
         <v>0.1</v>
       </c>
       <c r="AE17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG17">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH17">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -3882,13 +4425,13 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -3969,27 +4512,27 @@
         <v>0.16</v>
       </c>
       <c r="AE19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG19">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH19">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
@@ -4070,27 +4613,27 @@
         <v>0.1</v>
       </c>
       <c r="AE20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG20">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH20">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -4171,27 +4714,27 @@
         <v>0.16</v>
       </c>
       <c r="AE21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG21">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH21">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
@@ -4272,27 +4815,27 @@
         <v>0.1</v>
       </c>
       <c r="AE22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG22">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH22">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -4373,16 +4916,16 @@
         <v>0.1</v>
       </c>
       <c r="AE23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG23">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH23">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -4390,13 +4933,13 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
@@ -4477,28 +5020,27 @@
         <v>0.16</v>
       </c>
       <c r="AE25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG25">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AH25">
-        <f>AG25*0.968</f>
-        <v>0.72599999999999998</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
@@ -4579,28 +5121,27 @@
         <v>0.1</v>
       </c>
       <c r="AE26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG26">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AH26">
-        <f t="shared" ref="AH26:AH29" si="0">AG26*0.968</f>
-        <v>0.72599999999999998</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
@@ -4681,28 +5222,27 @@
         <v>0.16</v>
       </c>
       <c r="AE27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG27">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="0"/>
-        <v>0.72599999999999998</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
@@ -4783,28 +5323,27 @@
         <v>0.1</v>
       </c>
       <c r="AE28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG28">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="0"/>
-        <v>0.72599999999999998</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
@@ -4885,17 +5424,16 @@
         <v>0.1</v>
       </c>
       <c r="AE29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG29">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="0"/>
-        <v>0.72599999999999998</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
@@ -4981,21 +5519,21 @@
         <v>0.16</v>
       </c>
       <c r="AE34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG34">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH34">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
@@ -5061,7 +5599,7 @@
         <v>46</v>
       </c>
       <c r="Z35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AA35" t="s">
         <v>23</v>
@@ -5076,13 +5614,13 @@
         <v>0.12</v>
       </c>
       <c r="AE35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AG35">
-        <v>0.94599999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AH35">
         <v>0.91500000000000004</v>
@@ -5108,7 +5646,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5144,7 +5682,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -5216,7 +5754,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="9">
@@ -5463,7 +6001,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="37">
         <v>8.9791999999999997E-2</v>
@@ -5488,7 +6026,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="38">
         <v>6.9800000000000001E-2</v>
@@ -5571,7 +6109,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5581,63 +6119,63 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="F6" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="G6" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6399,7 +6937,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C69" s="41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6459,10 +6997,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6474,34 +7012,34 @@
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="31">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D3" s="31">
         <v>11.49</v>
       </c>
       <c r="E3" s="33">
         <f>D3/C3</f>
-        <v>0.93414634146341458</v>
+        <v>0.94180327868852465</v>
       </c>
       <c r="F3" s="31">
         <f>12.36+0.26</f>
@@ -6509,44 +7047,44 @@
       </c>
       <c r="G3" s="33">
         <f>F3/C3</f>
-        <v>1.0260162601626015</v>
+        <v>1.0344262295081967</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="31">
-        <v>10.1</v>
+        <v>10.66</v>
       </c>
       <c r="D4" s="31">
         <v>9.6790000000000003</v>
       </c>
       <c r="E4" s="33">
         <f t="shared" ref="E4:E14" si="0">D4/C4</f>
-        <v>0.95831683168316839</v>
+        <v>0.90797373358348965</v>
       </c>
       <c r="F4" s="31">
         <v>10.050000000000001</v>
       </c>
       <c r="G4" s="33">
         <f t="shared" ref="G4:G14" si="1">F4/C4</f>
-        <v>0.99504950495049516</v>
+        <v>0.94277673545966234</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="31">
-        <v>18.34</v>
+        <v>18.8</v>
       </c>
       <c r="D5" s="31">
         <v>17.21</v>
       </c>
       <c r="E5" s="33">
         <f t="shared" si="0"/>
-        <v>0.93838604143947657</v>
+        <v>0.91542553191489362</v>
       </c>
       <c r="F5" s="31">
         <f>18.17</f>
@@ -6554,15 +7092,16 @@
       </c>
       <c r="G5" s="33">
         <f t="shared" si="1"/>
-        <v>0.99073064340239925</v>
+        <v>0.96648936170212774</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="31">
-        <v>8.1999999999999993</v>
+        <f>C3-4.1</f>
+        <v>8.1</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="33"/>
@@ -6571,15 +7110,15 @@
       </c>
       <c r="G6" s="33">
         <f t="shared" si="1"/>
-        <v>0.99024390243902438</v>
+        <v>1.0024691358024691</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="31">
-        <v>16.77</v>
+        <v>17.645</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="33"/>
@@ -6588,15 +7127,15 @@
       </c>
       <c r="G7" s="33">
         <f t="shared" si="1"/>
-        <v>0.99105545617173529</v>
+        <v>0.94190988948710686</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C8" s="31">
-        <v>17.350000000000001</v>
+        <v>17.103999999999999</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="33"/>
@@ -6605,140 +7144,140 @@
       </c>
       <c r="G8" s="33">
         <f t="shared" si="1"/>
-        <v>0.99077809798270888</v>
+        <v>1.0050280636108513</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" s="31">
-        <v>0.39700000000000002</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D9" s="31">
         <v>0.37</v>
       </c>
       <c r="E9" s="33">
         <f t="shared" si="0"/>
-        <v>0.93198992443324935</v>
+        <v>0.93670886075949367</v>
       </c>
       <c r="F9" s="31">
         <v>0.39600000000000002</v>
       </c>
       <c r="G9" s="33">
         <f t="shared" si="1"/>
-        <v>0.9974811083123426</v>
+        <v>1.0025316455696203</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" s="31">
-        <v>0.182</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D10" s="31">
         <v>0.17</v>
       </c>
       <c r="E10" s="33">
         <f t="shared" si="0"/>
-        <v>0.93406593406593419</v>
+        <v>0.9770114942528737</v>
       </c>
       <c r="F10" s="31">
         <v>0.1792</v>
       </c>
       <c r="G10" s="33">
         <f t="shared" si="1"/>
-        <v>0.98461538461538467</v>
+        <v>1.0298850574712644</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C11" s="31">
-        <v>0.13400000000000001</v>
+        <v>0.1366</v>
       </c>
       <c r="D11" s="31">
         <v>0.122</v>
       </c>
       <c r="E11" s="33">
         <f t="shared" si="0"/>
-        <v>0.91044776119402981</v>
+        <v>0.89311859443631036</v>
       </c>
       <c r="F11" s="31">
         <v>0.13420000000000001</v>
       </c>
       <c r="G11" s="33">
         <f t="shared" si="1"/>
-        <v>1.0014925373134329</v>
+        <v>0.98243045387994155</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C12" s="31">
-        <f>0.457-0.0127</f>
-        <v>0.44430000000000003</v>
+        <f>0.445-0.0127</f>
+        <v>0.43230000000000002</v>
       </c>
       <c r="D12" s="31">
         <v>0.41699999999999998</v>
       </c>
       <c r="E12" s="33">
         <f t="shared" si="0"/>
-        <v>0.93855503038487498</v>
+        <v>0.96460791117279654</v>
       </c>
       <c r="F12" s="31">
         <v>0.439</v>
       </c>
       <c r="G12" s="33">
         <f t="shared" si="1"/>
-        <v>0.98807112311501233</v>
+        <v>1.0154984964145268</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" s="31">
-        <v>1.405</v>
+        <v>1.401</v>
       </c>
       <c r="D13" s="31">
         <v>1.4019999999999999</v>
       </c>
       <c r="E13" s="33">
         <f t="shared" si="0"/>
-        <v>0.9978647686832739</v>
+        <v>1.0007137758743754</v>
       </c>
       <c r="F13" s="31">
         <v>1.4019999999999999</v>
       </c>
       <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>0.9978647686832739</v>
+        <v>1.0007137758743754</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="31">
-        <v>0.80200000000000005</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="D14" s="31">
         <v>0.79500000000000004</v>
       </c>
       <c r="E14" s="33">
         <f t="shared" si="0"/>
-        <v>0.99127182044887785</v>
+        <v>0.93971631205673767</v>
       </c>
       <c r="F14" s="31">
         <v>0.80149999999999999</v>
       </c>
       <c r="G14" s="33">
         <f t="shared" si="1"/>
-        <v>0.99937655860349117</v>
+        <v>0.94739952718676124</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6748,6 +7287,178 @@
       <c r="E15" s="32"/>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="41">
+        <v>24429279</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="41">
+        <v>23532419</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="30">
+        <f>23532418/2</f>
+        <v>11766209</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="30">
+        <f xml:space="preserve"> 24429270 /2</f>
+        <v>12214635</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6758,48 +7469,321 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C6"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="2" max="3" width="22.5703125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="31">
+        <v>12.2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>12.37</v>
+      </c>
+      <c r="E3" s="33">
+        <f>D3/C3</f>
+        <v>1.0139344262295082</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="31">
+        <v>10.66</v>
+      </c>
+      <c r="D4" s="31">
+        <v>10.6</v>
+      </c>
+      <c r="E4" s="33">
+        <f t="shared" ref="E4:E14" si="0">D4/C4</f>
+        <v>0.99437148217636018</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="31">
+        <v>18.8</v>
+      </c>
+      <c r="D5" s="31">
+        <v>18.735600000000002</v>
+      </c>
+      <c r="E5" s="33">
+        <f t="shared" si="0"/>
+        <v>0.99657446808510641</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="31">
+        <f>C3-4.1</f>
+        <v>8.1</v>
+      </c>
+      <c r="D6" s="31">
+        <f>D3-4.1</f>
+        <v>8.27</v>
+      </c>
+      <c r="E6" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0209876543209877</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="31">
+        <v>17.645</v>
+      </c>
+      <c r="D7" s="31">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" si="0"/>
+        <v>0.99744970246528775</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="31">
+        <v>17.103999999999999</v>
+      </c>
+      <c r="D8" s="31">
+        <v>17.05</v>
+      </c>
+      <c r="E8" s="33">
+        <f t="shared" si="0"/>
+        <v>0.99684284377923305</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D9" s="31">
+        <v>39.39</v>
+      </c>
+      <c r="E9" s="33">
+        <f t="shared" si="0"/>
+        <v>99.721518987341767</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0.1706</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" si="0"/>
+        <v>0.98045977011494256</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0.1366</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="E11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.98462664714494885</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="31">
+        <f>0.445-0.0127</f>
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="D12" s="31">
+        <v>0.43</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="0"/>
+        <v>0.99467962063381909</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1.401</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1.397</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.99714489650249827</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="0"/>
+        <v>0.99917257683215144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
       <c r="B3">
-        <f>8122 * 5822 * 12</f>
-        <v>567435408</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <f>2031*4628*12</f>
-        <v>112793616</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <f>2440*4166*12</f>
-        <v>121980480</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <f>SUM(B3:B5)</f>
-        <v>802209504</v>
+        <v>8414</v>
+      </c>
+      <c r="C3">
+        <v>6056</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3*12</f>
+        <v>611462208</v>
+      </c>
+      <c r="E3">
+        <v>1983</v>
+      </c>
+      <c r="F3">
+        <v>4740</v>
+      </c>
+      <c r="G3">
+        <f>E3*F3*12</f>
+        <v>112793040</v>
+      </c>
+      <c r="H3">
+        <v>2422</v>
+      </c>
+      <c r="I3">
+        <v>4190</v>
+      </c>
+      <c r="J3">
+        <f>H3*I3*12</f>
+        <v>121778160</v>
+      </c>
+      <c r="K3">
+        <f>SUM(D3,G3,J3)</f>
+        <v>846033408</v>
       </c>
     </row>
   </sheetData>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -3171,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AL24" sqref="AL24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,7 +3421,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>40</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -3623,7 +3623,7 @@
         <v>40</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -3724,7 +3724,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3825,7 +3825,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4030,7 +4030,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -4131,7 +4131,7 @@
         <v>40</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4232,7 +4232,7 @@
         <v>40</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -4333,7 +4333,7 @@
         <v>40</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>40</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4639,7 +4639,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -4740,7 +4740,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -4841,7 +4841,7 @@
         <v>40</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -4945,7 +4945,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -5046,7 +5046,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>40</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -5248,7 +5248,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -5349,7 +5349,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -14,6 +14,7 @@
     <sheet name="Calibration" sheetId="6" r:id="rId5"/>
     <sheet name="Calibration_2016" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="168">
   <si>
     <t>runname</t>
   </si>
@@ -729,6 +730,24 @@
   </si>
   <si>
     <t>[29,] 2045 1964801350  3.480022e+10 12296.0002</t>
+  </si>
+  <si>
+    <t>Service pension</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>Serviving</t>
+  </si>
+  <si>
+    <t>Minor/dependent</t>
+  </si>
+  <si>
+    <t>refund of EEC</t>
+  </si>
+  <si>
+    <t>DROP</t>
   </si>
 </sst>
 </file>
@@ -3171,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,7 +3440,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -4945,7 +4964,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -5026,10 +5045,11 @@
         <v>55</v>
       </c>
       <c r="AG25">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="AH25">
-        <v>0.93899999999999995</v>
+        <f>0.939*0.75/0.91</f>
+        <v>0.77390109890109882</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -5127,10 +5147,11 @@
         <v>55</v>
       </c>
       <c r="AG26">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="AH26">
-        <v>0.93899999999999995</v>
+        <f t="shared" ref="AH26:AH29" si="0">0.939*0.75/0.91</f>
+        <v>0.77390109890109882</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
@@ -5228,10 +5249,11 @@
         <v>55</v>
       </c>
       <c r="AG27">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="AH27">
-        <v>0.93899999999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.77390109890109882</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
@@ -5329,10 +5351,11 @@
         <v>55</v>
       </c>
       <c r="AG28">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="AH28">
-        <v>0.93899999999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.77390109890109882</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
@@ -5430,10 +5453,11 @@
         <v>55</v>
       </c>
       <c r="AG29">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="AH29">
-        <v>0.93899999999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.77390109890109882</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
@@ -6109,7 +6133,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7472,7 +7496,7 @@
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,15 +7717,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -7786,7 +7811,79 @@
         <v>846033408</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="25">
+        <v>573741855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="25">
+        <v>112097385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="25">
+        <v>117553409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="25">
+        <v>2407917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="25">
+        <v>3067069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="25">
+        <v>181495545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <f>SUM(B8:B13)</f>
+        <v>990363180</v>
+      </c>
+      <c r="C14" s="25">
+        <f>B14-B13</f>
+        <v>808867635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="166">
   <si>
     <t>runname</t>
   </si>
@@ -149,12 +149,6 @@
   </si>
   <si>
     <t>sumTiers</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>RS1.t5</t>
   </si>
   <si>
     <t>F</t>
@@ -531,9 +525,6 @@
     <t>RVK</t>
   </si>
   <si>
-    <t>closed_RS1</t>
-  </si>
-  <si>
     <t xml:space="preserve">  year          B</t>
   </si>
   <si>
@@ -748,6 +739,9 @@
   </si>
   <si>
     <t>DROP</t>
+  </si>
+  <si>
+    <t>closed.RS1</t>
   </si>
 </sst>
 </file>
@@ -3188,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AH35"/>
+  <dimension ref="A4:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3223,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -3238,28 +3232,28 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>18</v>
@@ -3289,10 +3283,10 @@
         <v>15</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="5" t="s">
         <v>28</v>
@@ -3310,21 +3304,21 @@
         <v>11</v>
       </c>
       <c r="AE4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -3387,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB5">
         <v>7.4999999999999997E-2</v>
@@ -3405,10 +3399,10 @@
         <v>0.12</v>
       </c>
       <c r="AE5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG5">
         <v>0.91</v>
@@ -3434,7 +3428,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -3497,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s">
         <v>31</v>
@@ -3515,10 +3509,10 @@
         <v>0.16</v>
       </c>
       <c r="AE7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG7">
         <v>0.91</v>
@@ -3535,7 +3529,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -3598,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s">
         <v>31</v>
@@ -3616,10 +3610,10 @@
         <v>0.1</v>
       </c>
       <c r="AE8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG8">
         <v>0.91</v>
@@ -3636,7 +3630,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -3699,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s">
         <v>31</v>
@@ -3717,10 +3711,10 @@
         <v>0.16</v>
       </c>
       <c r="AE9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG9">
         <v>0.91</v>
@@ -3737,7 +3731,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -3800,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s">
         <v>31</v>
@@ -3818,10 +3812,10 @@
         <v>0.1</v>
       </c>
       <c r="AE10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG10">
         <v>0.91</v>
@@ -3838,7 +3832,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -3901,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s">
         <v>31</v>
@@ -3919,10 +3913,10 @@
         <v>0.1</v>
       </c>
       <c r="AE11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG11">
         <v>0.91</v>
@@ -3936,13 +3930,13 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -4005,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s">
         <v>31</v>
@@ -4023,10 +4017,10 @@
         <v>0.16</v>
       </c>
       <c r="AE13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG13">
         <v>0.91</v>
@@ -4037,13 +4031,13 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -4106,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s">
         <v>31</v>
@@ -4124,10 +4118,10 @@
         <v>0.1</v>
       </c>
       <c r="AE14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG14">
         <v>0.91</v>
@@ -4138,13 +4132,13 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -4207,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s">
         <v>31</v>
@@ -4225,10 +4219,10 @@
         <v>0.16</v>
       </c>
       <c r="AE15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG15">
         <v>0.91</v>
@@ -4239,13 +4233,13 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
@@ -4308,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s">
         <v>31</v>
@@ -4326,10 +4320,10 @@
         <v>0.1</v>
       </c>
       <c r="AE16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG16">
         <v>0.91</v>
@@ -4340,13 +4334,13 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -4409,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s">
         <v>31</v>
@@ -4427,10 +4421,10 @@
         <v>0.1</v>
       </c>
       <c r="AE17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG17">
         <v>0.91</v>
@@ -4444,13 +4438,13 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -4513,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s">
         <v>31</v>
@@ -4531,10 +4525,10 @@
         <v>0.16</v>
       </c>
       <c r="AE19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG19">
         <v>0.91</v>
@@ -4545,13 +4539,13 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
@@ -4614,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s">
         <v>31</v>
@@ -4632,10 +4626,10 @@
         <v>0.1</v>
       </c>
       <c r="AE20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG20">
         <v>0.91</v>
@@ -4646,13 +4640,13 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -4715,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s">
         <v>31</v>
@@ -4733,10 +4727,10 @@
         <v>0.16</v>
       </c>
       <c r="AE21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG21">
         <v>0.91</v>
@@ -4747,13 +4741,13 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
@@ -4816,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s">
         <v>31</v>
@@ -4834,10 +4828,10 @@
         <v>0.1</v>
       </c>
       <c r="AE22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG22">
         <v>0.91</v>
@@ -4848,13 +4842,13 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -4917,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s">
         <v>31</v>
@@ -4935,10 +4929,10 @@
         <v>0.1</v>
       </c>
       <c r="AE23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG23">
         <v>0.91</v>
@@ -4952,19 +4946,19 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -5021,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s">
         <v>31</v>
@@ -5039,10 +5033,10 @@
         <v>0.16</v>
       </c>
       <c r="AE25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG25">
         <v>0.75</v>
@@ -5054,13 +5048,13 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
@@ -5123,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s">
         <v>31</v>
@@ -5141,10 +5135,10 @@
         <v>0.1</v>
       </c>
       <c r="AE26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG26">
         <v>0.75</v>
@@ -5156,13 +5150,13 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
@@ -5225,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s">
         <v>31</v>
@@ -5243,10 +5237,10 @@
         <v>0.16</v>
       </c>
       <c r="AE27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG27">
         <v>0.75</v>
@@ -5258,13 +5252,13 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
@@ -5327,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s">
         <v>31</v>
@@ -5345,10 +5339,10 @@
         <v>0.1</v>
       </c>
       <c r="AE28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG28">
         <v>0.75</v>
@@ -5360,13 +5354,13 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
@@ -5429,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s">
         <v>31</v>
@@ -5447,10 +5441,10 @@
         <v>0.1</v>
       </c>
       <c r="AE29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG29">
         <v>0.75</v>
@@ -5462,22 +5456,28 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -5489,10 +5489,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="s">
         <v>4</v>
@@ -5525,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="Y34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="AA34" t="s">
         <v>23</v>
@@ -5537,16 +5537,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC34">
-        <v>8.5300000000000001E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AD34" s="7">
         <v>0.16</v>
       </c>
       <c r="AE34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG34">
         <v>0.91</v>
@@ -5555,107 +5555,12 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>70</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q35">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R35" t="b">
-        <v>0</v>
-      </c>
-      <c r="S35" t="b">
-        <v>1</v>
-      </c>
-      <c r="T35" t="s">
-        <v>32</v>
-      </c>
-      <c r="U35">
-        <v>20</v>
-      </c>
-      <c r="V35">
-        <v>0.04</v>
-      </c>
-      <c r="W35">
-        <v>7</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB35">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC35">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AD35" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG35">
-        <v>0.91</v>
-      </c>
-      <c r="AH35">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 G34:H35 J34:N35 J5:N29 G5:H29 F5:F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F30 J5:N29 G5:H29 F33 J34:N34 F34:H34">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z34:Z35 Z5:Z29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z29 Z34">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5670,7 +5575,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5712,7 +5617,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -5740,7 +5645,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5778,7 +5683,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="9">
@@ -6025,7 +5930,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="37">
         <v>8.9791999999999997E-2</v>
@@ -6050,7 +5955,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" s="38">
         <v>6.9800000000000001E-2</v>
@@ -6072,7 +5977,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="9">
@@ -6095,7 +6000,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="9">
@@ -6143,63 +6048,63 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="F6" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="G6" s="27" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6961,7 +6866,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C69" s="41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7023,7 +6928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
@@ -7036,24 +6941,24 @@
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="31">
         <v>12.2</v>
@@ -7076,7 +6981,7 @@
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="31">
         <v>10.66</v>
@@ -7098,7 +7003,7 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="31">
         <v>18.8</v>
@@ -7121,7 +7026,7 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="31">
         <f>C3-4.1</f>
@@ -7139,7 +7044,7 @@
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="31">
         <v>17.645</v>
@@ -7156,7 +7061,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="31">
         <v>17.103999999999999</v>
@@ -7173,7 +7078,7 @@
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="31">
         <v>0.39500000000000002</v>
@@ -7195,7 +7100,7 @@
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="31">
         <v>0.17399999999999999</v>
@@ -7217,7 +7122,7 @@
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="31">
         <v>0.1366</v>
@@ -7239,7 +7144,7 @@
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="31">
         <f>0.445-0.0127</f>
@@ -7262,7 +7167,7 @@
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="31">
         <v>1.401</v>
@@ -7284,7 +7189,7 @@
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="31">
         <v>0.84599999999999997</v>
@@ -7324,152 +7229,152 @@
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="41" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
@@ -7493,10 +7398,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7507,21 +7412,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="31">
         <v>12.2</v>
@@ -7536,7 +7441,7 @@
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="31">
         <v>10.66</v>
@@ -7551,7 +7456,7 @@
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="31">
         <v>18.8</v>
@@ -7566,7 +7471,7 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="31">
         <f>C3-4.1</f>
@@ -7583,7 +7488,7 @@
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="31">
         <v>17.645</v>
@@ -7598,7 +7503,7 @@
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="31">
         <v>17.103999999999999</v>
@@ -7613,7 +7518,7 @@
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="31">
         <v>0.39500000000000002</v>
@@ -7628,7 +7533,7 @@
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="31">
         <v>0.17399999999999999</v>
@@ -7643,7 +7548,7 @@
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="31">
         <v>0.1366</v>
@@ -7658,23 +7563,22 @@
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="31">
-        <f>0.445-0.0127</f>
-        <v>0.43230000000000002</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D12" s="31">
         <v>0.43</v>
       </c>
       <c r="E12" s="33">
         <f t="shared" si="0"/>
-        <v>0.99467962063381909</v>
+        <v>0.96846846846846846</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="31">
         <v>1.401</v>
@@ -7689,7 +7593,7 @@
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14" s="31">
         <v>0.84599999999999997</v>
@@ -7707,6 +7611,12 @@
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="30">
+        <f>0.446+0.1366+0.0127</f>
+        <v>0.59530000000000005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7719,8 +7629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7740,36 +7650,36 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" t="s">
         <v>126</v>
-      </c>
-      <c r="H1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7813,7 +7723,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B8" s="25">
         <v>573741855</v>
@@ -7821,7 +7731,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B9" s="25">
         <v>112097385</v>
@@ -7829,7 +7739,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B10" s="25">
         <v>117553409</v>
@@ -7837,7 +7747,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B11" s="25">
         <v>2407917</v>
@@ -7845,7 +7755,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B12" s="25">
         <v>3067069</v>
@@ -7853,7 +7763,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B13" s="25">
         <v>181495545</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
     <sheet name="GASB67 Cash flow" sheetId="5" r:id="rId4"/>
-    <sheet name="Calibration" sheetId="6" r:id="rId5"/>
-    <sheet name="Calibration_2016" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Calibration_2016" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Calibration" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,8 +25,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Budget for FY2016-2017</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="168">
   <si>
     <t>runname</t>
   </si>
@@ -743,6 +777,12 @@
   <si>
     <t>closed.RS1</t>
   </si>
+  <si>
+    <t>ERC w/o admin cost</t>
+  </si>
+  <si>
+    <t>CAFR 2016</t>
+  </si>
 </sst>
 </file>
 
@@ -755,7 +795,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,6 +842,19 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2039,23 +2092,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5371C1C3-1734-414D-9E04-FF1F64C8071E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2DCB43-3DA5-4FD4-BCAB-FC10424603A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,8 +2116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="3676650"/>
-          <a:ext cx="7467600" cy="2495550"/>
+          <a:off x="590550" y="3276600"/>
+          <a:ext cx="5448300" cy="2495550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2464,23 +2517,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2DCB43-3DA5-4FD4-BCAB-FC10424603A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5371C1C3-1734-414D-9E04-FF1F64C8071E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,8 +2541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="3276600"/>
-          <a:ext cx="5448300" cy="2495550"/>
+          <a:off x="876300" y="3676650"/>
+          <a:ext cx="7467600" cy="2495550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3184,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AH34"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C47:C48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,7 +3487,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -5468,7 +5521,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -5477,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -5575,7 +5628,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5617,7 +5670,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -5645,7 +5698,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,8 +6090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6925,483 +6978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="7" width="22.5703125" style="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="31">
-        <v>12.2</v>
-      </c>
-      <c r="D3" s="31">
-        <v>11.49</v>
-      </c>
-      <c r="E3" s="33">
-        <f>D3/C3</f>
-        <v>0.94180327868852465</v>
-      </c>
-      <c r="F3" s="31">
-        <f>12.36+0.26</f>
-        <v>12.62</v>
-      </c>
-      <c r="G3" s="33">
-        <f>F3/C3</f>
-        <v>1.0344262295081967</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="31">
-        <v>10.66</v>
-      </c>
-      <c r="D4" s="31">
-        <v>9.6790000000000003</v>
-      </c>
-      <c r="E4" s="33">
-        <f t="shared" ref="E4:E14" si="0">D4/C4</f>
-        <v>0.90797373358348965</v>
-      </c>
-      <c r="F4" s="31">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="G4" s="33">
-        <f t="shared" ref="G4:G14" si="1">F4/C4</f>
-        <v>0.94277673545966234</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="31">
-        <v>18.8</v>
-      </c>
-      <c r="D5" s="31">
-        <v>17.21</v>
-      </c>
-      <c r="E5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.91542553191489362</v>
-      </c>
-      <c r="F5" s="31">
-        <f>18.17</f>
-        <v>18.170000000000002</v>
-      </c>
-      <c r="G5" s="33">
-        <f t="shared" si="1"/>
-        <v>0.96648936170212774</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="31">
-        <f>C3-4.1</f>
-        <v>8.1</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="31">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="G6" s="33">
-        <f t="shared" si="1"/>
-        <v>1.0024691358024691</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="31">
-        <v>17.645</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="31">
-        <v>16.62</v>
-      </c>
-      <c r="G7" s="33">
-        <f t="shared" si="1"/>
-        <v>0.94190988948710686</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="31">
-        <v>17.103999999999999</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="31">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="G8" s="33">
-        <f t="shared" si="1"/>
-        <v>1.0050280636108513</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="31">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="D9" s="31">
-        <v>0.37</v>
-      </c>
-      <c r="E9" s="33">
-        <f t="shared" si="0"/>
-        <v>0.93670886075949367</v>
-      </c>
-      <c r="F9" s="31">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="G9" s="33">
-        <f t="shared" si="1"/>
-        <v>1.0025316455696203</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="31">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="D10" s="31">
-        <v>0.17</v>
-      </c>
-      <c r="E10" s="33">
-        <f t="shared" si="0"/>
-        <v>0.9770114942528737</v>
-      </c>
-      <c r="F10" s="31">
-        <v>0.1792</v>
-      </c>
-      <c r="G10" s="33">
-        <f t="shared" si="1"/>
-        <v>1.0298850574712644</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="31">
-        <v>0.1366</v>
-      </c>
-      <c r="D11" s="31">
-        <v>0.122</v>
-      </c>
-      <c r="E11" s="33">
-        <f t="shared" si="0"/>
-        <v>0.89311859443631036</v>
-      </c>
-      <c r="F11" s="31">
-        <v>0.13420000000000001</v>
-      </c>
-      <c r="G11" s="33">
-        <f t="shared" si="1"/>
-        <v>0.98243045387994155</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="31">
-        <f>0.445-0.0127</f>
-        <v>0.43230000000000002</v>
-      </c>
-      <c r="D12" s="31">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="E12" s="33">
-        <f t="shared" si="0"/>
-        <v>0.96460791117279654</v>
-      </c>
-      <c r="F12" s="31">
-        <v>0.439</v>
-      </c>
-      <c r="G12" s="33">
-        <f t="shared" si="1"/>
-        <v>1.0154984964145268</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="31">
-        <v>1.401</v>
-      </c>
-      <c r="D13" s="31">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="E13" s="33">
-        <f t="shared" si="0"/>
-        <v>1.0007137758743754</v>
-      </c>
-      <c r="F13" s="31">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="G13" s="33">
-        <f t="shared" si="1"/>
-        <v>1.0007137758743754</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="31">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="D14" s="31">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="E14" s="33">
-        <f t="shared" si="0"/>
-        <v>0.93971631205673767</v>
-      </c>
-      <c r="F14" s="31">
-        <v>0.80149999999999999</v>
-      </c>
-      <c r="G14" s="33">
-        <f t="shared" si="1"/>
-        <v>0.94739952718676124</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="41">
-        <v>24429279</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="41">
-        <v>23532419</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="41" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="41" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="30">
-        <f>23532418/2</f>
-        <v>11766209</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="30">
-        <f xml:space="preserve"> 24429270 /2</f>
-        <v>12214635</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7409,10 +6990,11 @@
     <col min="2" max="3" width="22.5703125" style="30" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" style="30" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
         <v>119</v>
@@ -7424,37 +7006,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="31">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="D3" s="31">
-        <v>12.37</v>
+        <v>12.29</v>
       </c>
       <c r="E3" s="33">
         <f>D3/C3</f>
-        <v>1.0139344262295082</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.0065520065520064</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="31">
-        <v>10.66</v>
+        <v>10.69</v>
       </c>
       <c r="D4" s="31">
-        <v>10.6</v>
+        <f>D5-D6 +0.232</f>
+        <v>10.701999999999998</v>
       </c>
       <c r="E4" s="33">
         <f t="shared" ref="E4:E14" si="0">D4/C4</f>
-        <v>0.99437148217636018</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.0011225444340504</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
         <v>80</v>
       </c>
@@ -7462,31 +7045,30 @@
         <v>18.8</v>
       </c>
       <c r="D5" s="31">
-        <v>18.735600000000002</v>
+        <v>18.54</v>
       </c>
       <c r="E5" s="33">
         <f t="shared" si="0"/>
-        <v>0.99657446808510641</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.9861702127659574</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="31">
         <f>C3-4.1</f>
-        <v>8.1</v>
+        <v>8.1100000000000012</v>
       </c>
       <c r="D6" s="31">
-        <f>D3-4.1</f>
-        <v>8.27</v>
+        <v>8.07</v>
       </c>
       <c r="E6" s="33">
         <f t="shared" si="0"/>
-        <v>1.0209876543209877</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.99506781750924778</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
         <v>82</v>
       </c>
@@ -7494,14 +7076,14 @@
         <v>17.645</v>
       </c>
       <c r="D7" s="31">
-        <v>17.600000000000001</v>
+        <v>17.41</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="0"/>
-        <v>0.99744970246528775</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.98668177954094649</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>83</v>
       </c>
@@ -7509,14 +7091,14 @@
         <v>17.103999999999999</v>
       </c>
       <c r="D8" s="31">
-        <v>17.05</v>
+        <v>16.87</v>
       </c>
       <c r="E8" s="33">
         <f t="shared" si="0"/>
-        <v>0.99684284377923305</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.98631898971000942</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>84</v>
       </c>
@@ -7524,14 +7106,14 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="D9" s="31">
-        <v>39.39</v>
+        <v>0.39150000000000001</v>
       </c>
       <c r="E9" s="33">
         <f t="shared" si="0"/>
-        <v>99.721518987341767</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.99113924050632907</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>85</v>
       </c>
@@ -7539,14 +7121,18 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="D10" s="31">
-        <v>0.1706</v>
+        <v>0.16930000000000001</v>
       </c>
       <c r="E10" s="33">
         <f t="shared" si="0"/>
-        <v>0.98045977011494256</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.97298850574712659</v>
+      </c>
+      <c r="G10">
+        <f>D11/D13</f>
+        <v>9.6349319971367212E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="34" t="s">
         <v>86</v>
       </c>
@@ -7554,29 +7140,38 @@
         <v>0.1366</v>
       </c>
       <c r="D11" s="31">
-        <v>0.13450000000000001</v>
+        <v>0.1346</v>
       </c>
       <c r="E11" s="33">
         <f t="shared" si="0"/>
-        <v>0.98462664714494885</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.98535871156661781</v>
+      </c>
+      <c r="F11">
+        <f>D11/D13</f>
+        <v>9.6349319971367212E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="C12" s="31">
-        <v>0.44400000000000001</v>
+        <f>0.445-0.0127</f>
+        <v>0.43230000000000002</v>
       </c>
       <c r="D12" s="31">
-        <v>0.43</v>
+        <v>0.42620000000000002</v>
       </c>
       <c r="E12" s="33">
         <f t="shared" si="0"/>
-        <v>0.96846846846846846</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.98588942863752027</v>
+      </c>
+      <c r="F12">
+        <f>D12/D13</f>
+        <v>0.30508231925554763</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>88</v>
       </c>
@@ -7591,46 +7186,46 @@
         <v>0.99714489650249827</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="31">
-        <v>0.84599999999999997</v>
+        <f>0.8365</f>
+        <v>0.83650000000000002</v>
       </c>
       <c r="D14" s="31">
         <v>0.84530000000000005</v>
       </c>
       <c r="E14" s="33">
         <f t="shared" si="0"/>
-        <v>0.99917257683215144</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.0105200239091452</v>
+      </c>
+      <c r="F14">
+        <f>1/E14</f>
+        <v>0.98958949485389813</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="30">
-        <f>0.446+0.1366+0.0127</f>
-        <v>0.59530000000000005</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7721,6 +7316,11 @@
         <v>846033408</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>159</v>
@@ -7784,7 +7384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7796,4 +7396,476 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="22.5703125" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="31">
+        <v>12.2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>11.49</v>
+      </c>
+      <c r="E3" s="33">
+        <f>D3/C3</f>
+        <v>0.94180327868852465</v>
+      </c>
+      <c r="F3" s="31">
+        <f>12.36+0.26</f>
+        <v>12.62</v>
+      </c>
+      <c r="G3" s="33">
+        <f>F3/C3</f>
+        <v>1.0344262295081967</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="31">
+        <v>10.66</v>
+      </c>
+      <c r="D4" s="31">
+        <v>9.6790000000000003</v>
+      </c>
+      <c r="E4" s="33">
+        <f t="shared" ref="E4:E14" si="0">D4/C4</f>
+        <v>0.90797373358348965</v>
+      </c>
+      <c r="F4" s="31">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G4" s="33">
+        <f t="shared" ref="G4:G14" si="1">F4/C4</f>
+        <v>0.94277673545966234</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="31">
+        <v>18.8</v>
+      </c>
+      <c r="D5" s="31">
+        <v>17.21</v>
+      </c>
+      <c r="E5" s="33">
+        <f t="shared" si="0"/>
+        <v>0.91542553191489362</v>
+      </c>
+      <c r="F5" s="31">
+        <f>18.17</f>
+        <v>18.170000000000002</v>
+      </c>
+      <c r="G5" s="33">
+        <f t="shared" si="1"/>
+        <v>0.96648936170212774</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="31">
+        <f>C3-4.1</f>
+        <v>8.1</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="31">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" si="1"/>
+        <v>1.0024691358024691</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="31">
+        <v>17.645</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="31">
+        <v>16.62</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="1"/>
+        <v>0.94190988948710686</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="31">
+        <v>17.103999999999999</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="31">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="1"/>
+        <v>1.0050280636108513</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0.37</v>
+      </c>
+      <c r="E9" s="33">
+        <f t="shared" si="0"/>
+        <v>0.93670886075949367</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G9" s="33">
+        <f t="shared" si="1"/>
+        <v>1.0025316455696203</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0.17</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" si="0"/>
+        <v>0.9770114942528737</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0.1792</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="1"/>
+        <v>1.0298850574712644</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0.1366</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0.122</v>
+      </c>
+      <c r="E11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.89311859443631036</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" si="1"/>
+        <v>0.98243045387994155</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="31">
+        <f>0.445-0.0127</f>
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="D12" s="31">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="0"/>
+        <v>0.96460791117279654</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0.439</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="1"/>
+        <v>1.0154984964145268</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1.401</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="0"/>
+        <v>1.0007137758743754</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="1"/>
+        <v>1.0007137758743754</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="0"/>
+        <v>0.93971631205673767</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0.80149999999999999</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="1"/>
+        <v>0.94739952718676124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="41">
+        <v>24429279</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="41">
+        <v>23532419</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="30">
+        <f>23532418/2</f>
+        <v>11766209</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="30">
+        <f xml:space="preserve"> 24429270 /2</f>
+        <v>12214635</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -598,9 +598,6 @@
     <t>RS5_cap</t>
   </si>
   <si>
-    <t>ERC_cap_NC50</t>
-  </si>
-  <si>
     <t>RS1_cap.allTiers</t>
   </si>
   <si>
@@ -782,6 +779,9 @@
   </si>
   <si>
     <t>CAFR 2016</t>
+  </si>
+  <si>
+    <t>ERC_cap_C50</t>
   </si>
 </sst>
 </file>
@@ -3238,7 +3238,7 @@
   <dimension ref="A4:AH34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,10 +3270,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -3294,13 +3294,13 @@
         <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>100</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>72</v>
@@ -3481,13 +3481,13 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -3582,7 +3582,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -3683,7 +3683,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -3784,7 +3784,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -3885,7 +3885,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -3989,7 +3989,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -4090,7 +4090,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -4191,7 +4191,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -4292,7 +4292,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
@@ -4393,7 +4393,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -4491,13 +4491,13 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -4592,13 +4592,13 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
@@ -4693,13 +4693,13 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -4794,13 +4794,13 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
@@ -4895,13 +4895,13 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -5005,7 +5005,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
@@ -5107,7 +5107,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
@@ -5209,7 +5209,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
@@ -5311,7 +5311,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
@@ -5413,7 +5413,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
@@ -5509,19 +5509,19 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>40</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -5610,7 +5610,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F30 J5:N29 G5:H29 F33 J34:N34 F34:H34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34:H34 J5:N29 G5:H29 F33 J34:N34 F5:F30">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z29 Z34">
@@ -5628,7 +5628,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5670,7 +5670,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -6979,10 +6979,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6997,10 +6997,10 @@
     <row r="2" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>75</v>
@@ -7029,12 +7029,12 @@
         <v>10.69</v>
       </c>
       <c r="D4" s="31">
-        <f>D5-D6 +0.232</f>
-        <v>10.701999999999998</v>
+        <f>D5-D6</f>
+        <v>10.739999999999998</v>
       </c>
       <c r="E4" s="33">
         <f t="shared" ref="E4:E14" si="0">D4/C4</f>
-        <v>1.0011225444340504</v>
+        <v>1.0046772684752103</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7045,11 +7045,11 @@
         <v>18.8</v>
       </c>
       <c r="D5" s="31">
-        <v>18.54</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="E5" s="33">
         <f t="shared" si="0"/>
-        <v>0.9861702127659574</v>
+        <v>1.0005319148936169</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7076,11 +7076,11 @@
         <v>17.645</v>
       </c>
       <c r="D7" s="31">
-        <v>17.41</v>
+        <v>17.66</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="0"/>
-        <v>0.98668177954094649</v>
+        <v>1.0008500991782374</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7091,11 +7091,11 @@
         <v>17.103999999999999</v>
       </c>
       <c r="D8" s="31">
-        <v>16.87</v>
+        <v>17.116</v>
       </c>
       <c r="E8" s="33">
         <f t="shared" si="0"/>
-        <v>0.98631898971000942</v>
+        <v>1.0007015902712817</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7121,11 +7121,11 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="D10" s="31">
-        <v>0.16930000000000001</v>
+        <v>0.17394999999999999</v>
       </c>
       <c r="E10" s="33">
         <f t="shared" si="0"/>
-        <v>0.97298850574712659</v>
+        <v>0.99971264367816093</v>
       </c>
       <c r="G10">
         <f>D11/D13</f>
@@ -7153,22 +7153,22 @@
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="31">
         <f>0.445-0.0127</f>
         <v>0.43230000000000002</v>
       </c>
       <c r="D12" s="31">
-        <v>0.42620000000000002</v>
+        <v>0.43080000000000002</v>
       </c>
       <c r="E12" s="33">
         <f t="shared" si="0"/>
-        <v>0.98588942863752027</v>
+        <v>0.99653018736988197</v>
       </c>
       <c r="F12">
         <f>D12/D13</f>
-        <v>0.30508231925554763</v>
+        <v>0.30837508947745168</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7188,7 +7188,7 @@
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="31">
         <f>0.8365</f>
@@ -7211,6 +7211,12 @@
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="32"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="30">
+        <f>0.24/17.1</f>
+        <v>1.4035087719298244E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7225,7 +7231,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7245,36 +7251,36 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" t="s">
-        <v>124</v>
-      </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7318,12 +7324,12 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="25">
         <v>573741855</v>
@@ -7331,7 +7337,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="25">
         <v>112097385</v>
@@ -7339,7 +7345,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="25">
         <v>117553409</v>
@@ -7347,7 +7353,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="25">
         <v>2407917</v>
@@ -7355,7 +7361,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="25">
         <v>3067069</v>
@@ -7363,7 +7369,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="25">
         <v>181495545</v>
@@ -7703,152 +7709,152 @@
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="170">
   <si>
     <t>runname</t>
   </si>
@@ -782,6 +782,12 @@
   </si>
   <si>
     <t>ERC_cap_C50</t>
+  </si>
+  <si>
+    <t>noCap_DC7</t>
+  </si>
+  <si>
+    <t>RS1_DC7</t>
   </si>
 </sst>
 </file>
@@ -3238,7 +3244,7 @@
   <dimension ref="A4:AH34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5507,6 +5513,107 @@
         <v>0.77390109890109882</v>
       </c>
     </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31">
+        <v>20</v>
+      </c>
+      <c r="V31">
+        <v>0.04</v>
+      </c>
+      <c r="W31">
+        <v>7</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC31">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="AD31" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG31">
+        <v>0.91</v>
+      </c>
+      <c r="AH31">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>164</v>
@@ -5521,7 +5628,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -5610,10 +5717,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34:H34 J5:N29 G5:H29 F33 J34:N34 F5:F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34:H34 J5:N29 G5:H29 F33 J34:N34 F5:F31 J31:N31 G31:H31">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z29 Z34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z29 Z34 Z31">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5628,7 +5735,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5670,7 +5777,7 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>6</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="176">
   <si>
     <t>runname</t>
   </si>
@@ -788,6 +788,24 @@
   </si>
   <si>
     <t>RS1_DC7</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MA_0</t>
+  </si>
+  <si>
+    <t>AA_0</t>
+  </si>
+  <si>
+    <t>AA0</t>
+  </si>
+  <si>
+    <t>RS1_DC7a</t>
+  </si>
+  <si>
+    <t>RS1_DC7b</t>
   </si>
 </sst>
 </file>
@@ -1959,16 +1977,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>150976</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133195</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>55726</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1991,7 +2009,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26803350" y="800100"/>
+          <a:off x="36328350" y="1581150"/>
           <a:ext cx="11390476" cy="1238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3241,9 +3259,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AH34"/>
+  <dimension ref="A4:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -3269,9 +3287,11 @@
     <col min="25" max="25" width="13.42578125" customWidth="1"/>
     <col min="26" max="26" width="12.5703125" customWidth="1"/>
     <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3374,8 +3394,14 @@
       <c r="AH4" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -3470,7 +3496,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AD6" s="7"/>
       <c r="AG6">
         <v>0.91</v>
@@ -3479,7 +3505,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3580,7 +3606,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3681,7 +3707,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3782,7 +3808,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3883,7 +3909,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3984,10 +4010,10 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AD12" s="7"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -4088,7 +4114,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -4189,7 +4215,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -4290,7 +4316,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -4391,7 +4417,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -4492,10 +4518,10 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AD18" s="7"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -4596,7 +4622,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -4697,7 +4723,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -4798,7 +4824,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -4899,7 +4925,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -5000,10 +5026,10 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AD24" s="7"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -5105,7 +5131,7 @@
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -5207,7 +5233,7 @@
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -5309,7 +5335,7 @@
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -5411,7 +5437,7 @@
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -5513,7 +5539,7 @@
         <v>0.77390109890109882</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>169</v>
       </c>
@@ -5527,7 +5553,7 @@
         <v>40</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -5602,10 +5628,10 @@
         <v>0.16</v>
       </c>
       <c r="AE31" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="AF31" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="AG31">
         <v>0.91</v>
@@ -5613,114 +5639,334 @@
       <c r="AH31">
         <v>0.93899999999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="AI31" s="41">
+        <v>17115507004</v>
+      </c>
+      <c r="AJ31" s="41">
+        <v>17660946238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32">
+        <v>20</v>
+      </c>
+      <c r="V32">
+        <v>0.04</v>
+      </c>
+      <c r="W32">
+        <v>7</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB32">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AC32">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="AD32" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG32">
+        <v>0.91</v>
+      </c>
+      <c r="AH32">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="AI32" s="41">
+        <v>17115507004</v>
+      </c>
+      <c r="AJ32" s="41">
+        <v>17660946238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33">
+        <v>20</v>
+      </c>
+      <c r="V33">
+        <v>0.04</v>
+      </c>
+      <c r="W33">
+        <v>7</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC33">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG33">
+        <v>0.91</v>
+      </c>
+      <c r="AH33">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="AI33" s="41">
+        <v>17115507004</v>
+      </c>
+      <c r="AJ33" s="41">
+        <v>17660946238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>164</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>114</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>40</v>
       </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34">
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>70</v>
       </c>
-      <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
         <v>4</v>
       </c>
-      <c r="P34">
+      <c r="P35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q34">
+      <c r="Q35">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R34" t="b">
-        <v>1</v>
-      </c>
-      <c r="S34" t="b">
-        <v>1</v>
-      </c>
-      <c r="T34" t="s">
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
         <v>32</v>
       </c>
-      <c r="U34">
+      <c r="U35">
         <v>20</v>
       </c>
-      <c r="V34">
+      <c r="V35">
         <v>0.04</v>
       </c>
-      <c r="W34">
+      <c r="W35">
         <v>7</v>
       </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="s">
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="s">
         <v>44</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Z35" t="s">
         <v>54</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AA35" t="s">
         <v>23</v>
       </c>
-      <c r="AB34">
+      <c r="AB35">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC34">
+      <c r="AC35">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AD34" s="7">
+      <c r="AD35" s="7">
         <v>0.16</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AE35" t="s">
         <v>53</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AF35" t="s">
         <v>53</v>
       </c>
-      <c r="AG34">
+      <c r="AG35">
         <v>0.91</v>
       </c>
-      <c r="AH34">
+      <c r="AH35">
         <v>0.93899999999999995</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34:H34 J5:N29 G5:H29 F33 J34:N34 F5:F31 J31:N31 G31:H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:H35 J5:N29 G5:H29 J35:N35 J31:N33 G31:H33 F5:F34">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z29 Z34 Z31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z29 Z35 Z31:Z33">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7089,7 +7335,7 @@
   <dimension ref="B1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -39,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Budget for FY2016-2017</t>
@@ -871,14 +871,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3261,8 +3261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3271,8 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="8" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="8" width="24.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="25.140625" customWidth="1"/>
     <col min="11" max="11" width="21.140625" customWidth="1"/>
@@ -3519,7 +3520,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -7762,7 +7763,7 @@
   <dimension ref="B1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8050,12 +8051,24 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="30">
+        <f>0.4/18.8</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="30">
+        <f>0.85/18.8</f>
+        <v>4.5212765957446804E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="41">
         <v>24429279</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="41">
         <v>23532419</v>
       </c>
